--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Aglie_Methods_for_SW_Development/Project_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Aglie_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4EE327-A75C-0C4A-B562-D66308CC13AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB0E1E-AD13-2140-AF1C-A540D2A5BC51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2857,7 +2857,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2938,7 +2938,7 @@
         <v>195</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2961,7 +2961,7 @@
         <v>195</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2977,6 +2977,12 @@
       <c r="C4" t="s">
         <v>183</v>
       </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2989,6 +2995,12 @@
       <c r="C5" t="s">
         <v>183</v>
       </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -3001,6 +3013,12 @@
       <c r="C6" t="s">
         <v>187</v>
       </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -3013,6 +3031,12 @@
       <c r="C7" t="s">
         <v>187</v>
       </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -3025,6 +3049,12 @@
       <c r="C8" t="s">
         <v>182</v>
       </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -3036,6 +3066,12 @@
       <c r="C9" t="s">
         <v>182</v>
       </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -3047,6 +3083,9 @@
       <c r="C10" t="s">
         <v>182</v>
       </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22" t="s">
@@ -3057,6 +3096,12 @@
       </c>
       <c r="C11" s="22" t="s">
         <v>182</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Aglie_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Desktop\SchoolWork\555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AB0E1E-AD13-2140-AF1C-A540D2A5BC51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A87BE5-4776-4F20-B5F6-9DC40B14728A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5693" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -688,10 +688,25 @@
     <t>MongoDB - Python interface</t>
   </si>
   <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>Time is measured in days</t>
+    <t>Sprint Review:</t>
+  </si>
+  <si>
+    <t>What are we doing well?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we met as a team we did a good job communicating our strengths and weaknesses and who was going to do what. </t>
+  </si>
+  <si>
+    <t>What can we improve?</t>
+  </si>
+  <si>
+    <t>We need to do better using our time for the next sprint. Start working early on to avoid late nights and get help needed.</t>
+  </si>
+  <si>
+    <t>What surprised us?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were a little confused at how the roles needed to be split up for each sprint. Once we got help from the professor it was clear. </t>
   </si>
 </sst>
 </file>
@@ -702,7 +717,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -739,6 +754,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -845,8 +867,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -885,6 +905,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -996,7 +1022,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1067,7 +1093,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2054,15 +2080,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46875" customWidth="1"/>
+    <col min="4" max="5" width="20.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2079,24 +2105,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2106,57 +2132,57 @@
       <c r="C3" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2180,400 +2206,400 @@
       <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="22" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="6.8203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.17578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.46875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.64453125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.64453125" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="10.8203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.15">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
       <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>136</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>139</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
       <c r="B31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2592,47 +2618,47 @@
       <selection activeCell="B15" sqref="B15:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="9.46875" customWidth="1"/>
+    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3515625" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2651,122 +2677,122 @@
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>41065</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>24</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="12"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>41078</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>250</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>120</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>41092</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>480</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>135</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>41106</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>740</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>160</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>41120</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>1100</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <v>145</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -2786,17 +2812,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="16.64453125" customWidth="1"/>
+    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.17578125" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2812,11 +2838,11 @@
       <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -2824,22 +2850,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -2856,31 +2882,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.46875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.17578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.8203125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.17578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.46875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.17578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2893,45 +2919,45 @@
       <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C2" t="s">
@@ -2943,18 +2969,18 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C3" t="s">
@@ -2967,11 +2993,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C4" t="s">
@@ -2983,13 +3009,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
@@ -3001,13 +3026,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>67</v>
       </c>
       <c r="C6" t="s">
@@ -3019,13 +3043,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
@@ -3037,13 +3060,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C8" t="s">
@@ -3056,11 +3078,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
@@ -3073,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -3087,14 +3109,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>182</v>
       </c>
       <c r="E11">
@@ -3104,36 +3126,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-    </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="25" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3150,9 +3190,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3165,19 +3205,19 @@
       <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3196,9 +3236,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3211,19 +3251,19 @@
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3241,9 +3281,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3256,19 +3296,19 @@
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3286,13 +3326,13 @@
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -3303,465 +3343,465 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
       <c r="B18" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
       <c r="B24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
       <c r="B29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="10" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
       <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
       <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>139</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>141</v>
       </c>
       <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
       <c r="B35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>143</v>
       </c>
       <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>144</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>146</v>
       </c>
       <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
       <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
       <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
       <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="10" t="s">
         <v>61</v>
       </c>
     </row>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Desktop\SchoolWork\555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Aglie_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A87BE5-4776-4F20-B5F6-9DC40B14728A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83C6C1-7AAF-5B40-9CEC-D5ADA090C246}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5693" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="213">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t xml:space="preserve">We were a little confused at how the roles needed to be split up for each sprint. Once we got help from the professor it was clear. </t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1093,7 +1096,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2080,15 +2083,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46875" customWidth="1"/>
-    <col min="4" max="5" width="20.46875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2139,7 +2142,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>187</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>195</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2182,7 +2185,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2202,21 +2205,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.8203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.17578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="34.46875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.64453125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.64453125" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="10.8203125" style="20"/>
+    <col min="1" max="1" width="6.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>109</v>
       </c>
@@ -2246,8 +2249,11 @@
       <c r="D2" s="20" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E2" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>110</v>
       </c>
@@ -2260,8 +2266,11 @@
       <c r="D3" s="20" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="E3" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>112</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>113</v>
       </c>
@@ -2299,8 +2308,11 @@
       <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="D6" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>114</v>
       </c>
@@ -2310,8 +2322,11 @@
       <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+      <c r="D7" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>115</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>116</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>117</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>118</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>119</v>
       </c>
@@ -2372,7 +2387,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>120</v>
       </c>
@@ -2383,7 +2398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>121</v>
       </c>
@@ -2394,7 +2409,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>122</v>
       </c>
@@ -2405,7 +2420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>123</v>
       </c>
@@ -2416,7 +2431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
         <v>124</v>
       </c>
@@ -2427,7 +2442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>125</v>
       </c>
@@ -2438,7 +2453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>126</v>
       </c>
@@ -2449,7 +2464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>127</v>
       </c>
@@ -2460,7 +2475,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>128</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>130</v>
       </c>
@@ -2482,7 +2497,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>131</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
         <v>132</v>
       </c>
@@ -2504,7 +2519,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>133</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2559,7 +2574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -2570,7 +2585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2581,7 +2596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>149</v>
       </c>
@@ -2592,7 +2607,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>150</v>
       </c>
@@ -2618,47 +2633,47 @@
       <selection activeCell="B15" sqref="B15:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="9.46875" customWidth="1"/>
-    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2681,7 +2696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2697,7 +2712,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2722,7 +2737,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2747,7 +2762,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2772,7 +2787,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -2812,17 +2827,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="16.64453125" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.17578125" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2842,7 +2857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -2850,22 +2865,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -2882,31 +2897,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.46875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.46875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.17578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.8203125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="10.17578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.46875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.17578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2968,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2976,7 +2991,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2993,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3027,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3044,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3061,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -3078,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>203</v>
       </c>
@@ -3126,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3134,43 +3149,43 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="48" x14ac:dyDescent="0.15">
       <c r="B18" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="48" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="48" x14ac:dyDescent="0.15">
       <c r="B24" s="25" t="s">
         <v>211</v>
       </c>
@@ -3190,9 +3205,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3236,9 +3251,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3281,9 +3296,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3326,13 +3341,13 @@
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -3343,7 +3358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3354,7 +3369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -3365,7 +3380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3376,7 +3391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3387,7 +3402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3398,7 +3413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3409,7 +3424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3431,7 +3446,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -3442,7 +3457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -3453,7 +3468,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -3464,7 +3479,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -3475,7 +3490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -3486,7 +3501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3497,7 +3512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -3508,7 +3523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -3519,7 +3534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -3530,7 +3545,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3541,7 +3556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -3552,7 +3567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -3563,7 +3578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -3574,7 +3589,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -3585,7 +3600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -3596,7 +3611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -3607,7 +3622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -3618,7 +3633,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -3629,7 +3644,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -3651,7 +3666,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3662,7 +3677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -3673,7 +3688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -3684,7 +3699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3695,7 +3710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -3706,7 +3721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3717,7 +3732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3728,7 +3743,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -3739,7 +3754,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3750,7 +3765,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3761,7 +3776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -3772,7 +3787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -3783,7 +3798,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Aglie_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83C6C1-7AAF-5B40-9CEC-D5ADA090C246}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D52371-C8EA-014D-A9B7-6D5F9023C8B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="220">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -710,6 +710,27 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>DateValidation.py</t>
+  </si>
+  <si>
+    <t>validateDate</t>
+  </si>
+  <si>
+    <t>validateMarraigeDate</t>
+  </si>
+  <si>
+    <t>TestDateValidation.py</t>
+  </si>
+  <si>
+    <t>test_validateDate</t>
+  </si>
+  <si>
+    <t>test_validateMarraigeDate</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2250,7 +2271,7 @@
         <v>195</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2897,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2909,15 +2930,15 @@
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2984,12 +3005,33 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>0.82</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42046</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="M2" s="15">
+        <v>17</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -3006,6 +3048,33 @@
       </c>
       <c r="F3">
         <v>1</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>0.82</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42046</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="15">
+        <v>12</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D52371-C8EA-014D-A9B7-6D5F9023C8B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2F48E-A0EE-0E47-A6FF-6ADA6DE137E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="224">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -731,6 +731,18 @@
   </si>
   <si>
     <t>test_validateMarraigeDate</t>
+  </si>
+  <si>
+    <t>validate_birth_before_death</t>
+  </si>
+  <si>
+    <t>validate_marraige_before_divorce</t>
+  </si>
+  <si>
+    <t>test_validate_birth_before_death_XXX</t>
+  </si>
+  <si>
+    <t>test_validate_marraige_before_divorce_XXX</t>
   </si>
 </sst>
 </file>
@@ -880,7 +892,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,6 +948,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2918,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3077,7 +3095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3093,8 +3111,32 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42047</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M4" s="15">
+        <v>15</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3109,6 +3151,30 @@
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42047</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="15">
+        <v>14</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Source\Repos\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F2F48E-A0EE-0E47-A6FF-6ADA6DE137E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8A739-2CDA-4E21-A512-2E8CF08B3A93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -28,11 +28,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="231">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -743,6 +738,27 @@
   </si>
   <si>
     <t>test_validate_marraige_before_divorce_XXX</t>
+  </si>
+  <si>
+    <t>marriage_before_death</t>
+  </si>
+  <si>
+    <t>divorce_before_death</t>
+  </si>
+  <si>
+    <t>TestDeathValidation.py</t>
+  </si>
+  <si>
+    <t>test_divorce_before_death</t>
+  </si>
+  <si>
+    <t>test_marriage_before_death</t>
+  </si>
+  <si>
+    <t>DivorceBeforeDeathValidation.py</t>
+  </si>
+  <si>
+    <t>MarriageBeforeDeathValidation.py</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1080,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1135,7 +1151,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2122,15 +2138,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46875" customWidth="1"/>
+    <col min="4" max="5" width="20.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2147,7 +2163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
@@ -2164,7 +2180,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2181,7 +2197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>187</v>
       </c>
@@ -2198,7 +2214,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>195</v>
       </c>
@@ -2215,7 +2231,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2248,17 +2264,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="6.8203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.17578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.46875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.64453125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.3515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
@@ -2275,7 +2291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>109</v>
       </c>
@@ -2292,7 +2308,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>110</v>
       </c>
@@ -2309,7 +2325,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
@@ -2323,7 +2339,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>112</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>113</v>
       </c>
@@ -2351,7 +2367,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>114</v>
       </c>
@@ -2365,7 +2381,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>115</v>
       </c>
@@ -2376,7 +2392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>116</v>
       </c>
@@ -2387,7 +2403,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>117</v>
       </c>
@@ -2398,7 +2414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>118</v>
       </c>
@@ -2412,7 +2428,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>119</v>
       </c>
@@ -2426,7 +2442,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>120</v>
       </c>
@@ -2437,7 +2453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>121</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>122</v>
       </c>
@@ -2459,7 +2475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>123</v>
       </c>
@@ -2470,7 +2486,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>124</v>
       </c>
@@ -2481,7 +2497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>125</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>126</v>
       </c>
@@ -2503,7 +2519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>127</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>128</v>
       </c>
@@ -2525,7 +2541,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>130</v>
       </c>
@@ -2536,7 +2552,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>131</v>
       </c>
@@ -2547,7 +2563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>132</v>
       </c>
@@ -2558,7 +2574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>133</v>
       </c>
@@ -2569,7 +2585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2580,7 +2596,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2591,7 +2607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2602,7 +2618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2613,7 +2629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -2624,7 +2640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2635,7 +2651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>149</v>
       </c>
@@ -2646,7 +2662,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>150</v>
       </c>
@@ -2672,47 +2688,47 @@
       <selection activeCell="B15" sqref="B15:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="9.46875" customWidth="1"/>
+    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3515625" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2735,7 +2751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2751,7 +2767,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2776,7 +2792,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2801,7 +2817,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2826,7 +2842,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -2866,17 +2882,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="16.64453125" customWidth="1"/>
+    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.17578125" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -2904,22 +2920,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -2936,31 +2952,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.64453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.29296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.17578125" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.8203125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="19.8203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.46875" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.17578125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3007,7 +3023,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3051,7 +3067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -3095,7 +3111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3177,7 +3193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3193,8 +3209,32 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2">
+        <v>42052</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M6" s="15">
+        <v>15</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3210,8 +3250,32 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42052</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M7" s="15">
+        <v>15</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>200</v>
       </c>
@@ -3228,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -3245,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -3259,7 +3323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>203</v>
       </c>
@@ -3276,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3284,43 +3348,43 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
     </row>
-    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="48" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="48" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="48" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
         <v>211</v>
       </c>
@@ -3340,9 +3404,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3386,9 +3450,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3431,9 +3495,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3476,13 +3540,13 @@
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -3493,7 +3557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3504,7 +3568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -3515,7 +3579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3526,7 +3590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3537,7 +3601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3548,7 +3612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3559,7 +3623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -3570,7 +3634,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3581,7 +3645,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -3592,7 +3656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -3603,7 +3667,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -3614,7 +3678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -3625,7 +3689,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -3636,7 +3700,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3647,7 +3711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -3658,7 +3722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -3669,7 +3733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -3680,7 +3744,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3691,7 +3755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -3702,7 +3766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -3713,7 +3777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -3724,7 +3788,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -3735,7 +3799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -3746,7 +3810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -3757,7 +3821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -3768,7 +3832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -3779,7 +3843,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -3790,7 +3854,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -3801,7 +3865,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3812,7 +3876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -3823,7 +3887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -3834,7 +3898,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3845,7 +3909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -3856,7 +3920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3867,7 +3931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3878,7 +3942,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -3889,7 +3953,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3900,7 +3964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3911,7 +3975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -3922,7 +3986,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -3933,7 +3997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -3944,7 +4008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Source\Repos\SSW555-DriverlessCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D8A739-2CDA-4E21-A512-2E8CF08B3A93}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF149CD-6188-9444-8CDD-F2B78C8183BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -908,7 +913,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,6 +975,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1080,7 +1088,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1151,7 +1159,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1245,6 +1253,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,15 +2149,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46875" customWidth="1"/>
-    <col min="4" max="5" width="20.46875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2197,7 +2208,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
         <v>187</v>
       </c>
@@ -2214,7 +2225,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>195</v>
       </c>
@@ -2231,7 +2242,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2260,21 +2271,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.8203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.17578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="34.46875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.64453125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.3515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8203125" style="20"/>
+    <col min="1" max="1" width="6.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>29</v>
       </c>
@@ -2291,7 +2302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>109</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>110</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
@@ -2339,7 +2350,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>112</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>113</v>
       </c>
@@ -2367,7 +2378,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
         <v>114</v>
       </c>
@@ -2381,7 +2392,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="20" t="s">
         <v>115</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
         <v>116</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>117</v>
       </c>
@@ -2414,11 +2425,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -2428,11 +2439,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -2442,7 +2453,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>120</v>
       </c>
@@ -2453,7 +2464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
         <v>121</v>
       </c>
@@ -2464,7 +2475,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
         <v>122</v>
       </c>
@@ -2475,7 +2486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
         <v>123</v>
       </c>
@@ -2486,7 +2497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="20" t="s">
         <v>124</v>
       </c>
@@ -2497,7 +2508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="20" t="s">
         <v>125</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="20" t="s">
         <v>126</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="20" t="s">
         <v>127</v>
       </c>
@@ -2530,7 +2541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
         <v>128</v>
       </c>
@@ -2541,7 +2552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="20" t="s">
         <v>130</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="20" t="s">
         <v>131</v>
       </c>
@@ -2563,7 +2574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
         <v>132</v>
       </c>
@@ -2574,7 +2585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="20" t="s">
         <v>133</v>
       </c>
@@ -2585,7 +2596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -2629,7 +2640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -2640,7 +2651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -2651,7 +2662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
         <v>149</v>
       </c>
@@ -2662,7 +2673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="20" t="s">
         <v>150</v>
       </c>
@@ -2684,51 +2695,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="9.46875" customWidth="1"/>
-    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2767,7 +2778,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2792,7 +2803,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2817,7 +2828,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2842,7 +2853,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -2879,20 +2890,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="16.64453125" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.17578125" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -2920,22 +2931,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -2952,31 +2966,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.3515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.64453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.29296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.17578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.8203125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="19.8203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.46875" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.17578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3067,7 +3081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3149,10 +3163,10 @@
         <v>222</v>
       </c>
       <c r="Q4" s="15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="24.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3190,10 +3204,10 @@
         <v>223</v>
       </c>
       <c r="Q5" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3234,7 +3248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3275,12 +3289,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>64</v>
+      <c r="B8" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>182</v>
@@ -3292,12 +3306,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>66</v>
+      <c r="B9" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>182</v>
@@ -3309,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -3323,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>203</v>
       </c>
@@ -3340,7 +3354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -3348,43 +3362,43 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16" s="23"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="24" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="48" x14ac:dyDescent="0.15">
       <c r="B18" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="48" x14ac:dyDescent="0.15">
       <c r="B21" s="25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B23" s="24" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="39.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="48" x14ac:dyDescent="0.15">
       <c r="B24" s="25" t="s">
         <v>211</v>
       </c>
@@ -3404,9 +3418,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3450,9 +3464,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3495,9 +3509,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3540,13 +3554,13 @@
       <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -3557,7 +3571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3568,7 +3582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -3579,7 +3593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -3590,7 +3604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -3601,7 +3615,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3612,7 +3626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -3623,7 +3637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -3634,7 +3648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -3645,7 +3659,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -3656,7 +3670,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -3667,7 +3681,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -3678,7 +3692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -3689,7 +3703,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -3700,7 +3714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -3711,7 +3725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -3722,7 +3736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -3733,7 +3747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -3744,7 +3758,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -3755,7 +3769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -3766,7 +3780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -3777,7 +3791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -3788,7 +3802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -3810,7 +3824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -3821,7 +3835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -3832,7 +3846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -3843,7 +3857,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -3854,7 +3868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -3865,7 +3879,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -3876,7 +3890,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -3898,7 +3912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3909,7 +3923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -3920,7 +3934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3931,7 +3945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3942,7 +3956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -3953,7 +3967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3964,7 +3978,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -3986,7 +4000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -3997,7 +4011,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4008,7 +4022,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF149CD-6188-9444-8CDD-F2B78C8183BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D054E5C-DFDF-E243-8CC4-16D9E7CB49FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="230">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -676,45 +677,18 @@
     <t>Us10</t>
   </si>
   <si>
-    <t>TSK1</t>
-  </si>
-  <si>
-    <t>Set Up MongoDB</t>
-  </si>
-  <si>
-    <t>TSK2</t>
-  </si>
-  <si>
-    <t>MongoDB - Python interface</t>
-  </si>
-  <si>
     <t>Sprint Review:</t>
   </si>
   <si>
     <t>What are we doing well?</t>
   </si>
   <si>
-    <t xml:space="preserve">When we met as a team we did a good job communicating our strengths and weaknesses and who was going to do what. </t>
-  </si>
-  <si>
     <t>What can we improve?</t>
   </si>
   <si>
-    <t>We need to do better using our time for the next sprint. Start working early on to avoid late nights and get help needed.</t>
-  </si>
-  <si>
     <t>What surprised us?</t>
   </si>
   <si>
-    <t xml:space="preserve">We were a little confused at how the roles needed to be split up for each sprint. Once we got help from the professor it was clear. </t>
-  </si>
-  <si>
-    <t>in progress</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>DateValidation.py</t>
   </si>
   <si>
@@ -727,12 +701,6 @@
     <t>TestDateValidation.py</t>
   </si>
   <si>
-    <t>test_validateDate</t>
-  </si>
-  <si>
-    <t>test_validateMarraigeDate</t>
-  </si>
-  <si>
     <t>validate_birth_before_death</t>
   </si>
   <si>
@@ -764,6 +732,38 @@
   </si>
   <si>
     <t>MarriageBeforeDeathValidation.py</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>test_validateDate_XXX</t>
+  </si>
+  <si>
+    <t>test_validateMarraigeDate_XXX</t>
+  </si>
+  <si>
+    <t>TestMarraigeValidation.py</t>
+  </si>
+  <si>
+    <t>test_valid_age_at_marraige_XXX</t>
+  </si>
+  <si>
+    <t>test_not_bigamus_XXX</t>
+  </si>
+  <si>
+    <t>at_least_14
+valid_age_at_marraige</t>
+  </si>
+  <si>
+    <t>not_bigamus
+bigamy_check</t>
+  </si>
+  <si>
+    <t>MarraigeValidation.py</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -929,24 +929,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -961,23 +949,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2146,7 +2158,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2174,20 +2186,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2201,44 +2213,44 @@
       <c r="C3" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2246,12 +2258,12 @@
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2271,417 +2283,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>213</v>
+      <c r="E2" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>212</v>
+      <c r="E3" s="16" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>183</v>
       </c>
+      <c r="E4" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>183</v>
       </c>
+      <c r="E5" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>187</v>
       </c>
+      <c r="E6" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>187</v>
       </c>
+      <c r="E7" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="16" t="s">
         <v>182</v>
       </c>
+      <c r="E11" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>182</v>
       </c>
+      <c r="E12" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="17" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+      <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.15">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+      <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>61</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2695,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B19"/>
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2766,36 +2799,36 @@
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>41065</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>41078</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>250</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>120</v>
       </c>
       <c r="G16" s="7">
@@ -2807,20 +2840,20 @@
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>41092</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>480</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
       <c r="G17" s="7">
@@ -2832,20 +2865,20 @@
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>41106</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>740</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
       <c r="G18" s="7">
@@ -2857,20 +2890,20 @@
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>41120</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>1100</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
       <c r="G19" s="7">
@@ -2890,7 +2923,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2930,6 +2963,9 @@
       <c r="B2">
         <v>32</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
@@ -2937,6 +2973,20 @@
       </c>
       <c r="B3">
         <v>24</v>
+      </c>
+      <c r="C3">
+        <f>B2-B3</f>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>182</v>
+      </c>
+      <c r="E3">
+        <v>4.2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>(D3-D2)/(E3*60)</f>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2964,444 +3014,492 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="P1" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="16">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="16">
         <v>17</v>
       </c>
-      <c r="H2">
-        <v>0.82</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="26">
         <v>42046</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L2" s="24">
+        <v>17</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="16">
+        <v>15</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>12</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="26">
+        <v>42046</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="24">
+        <v>12</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="16">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>15</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="26">
+        <v>42047</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" s="24">
+        <v>15</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="P4" s="24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="16">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>14</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="26">
+        <v>42047</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="L5" s="24">
+        <v>14</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="P5" s="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="16">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="26">
+        <v>42052</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L6" s="24">
+        <v>15</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="16">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16">
+        <v>15</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="26">
+        <v>42052</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L7" s="24">
+        <v>15</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="M2" s="15">
-        <v>17</v>
-      </c>
-      <c r="O2" s="16" t="s">
+      <c r="O7" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3">
+      <c r="P7" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="16">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>0.82</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42046</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="M3" s="15">
-        <v>12</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4">
+      <c r="G8" s="16">
+        <v>22</v>
+      </c>
+      <c r="I8" s="26">
+        <v>42055</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" s="24">
+        <v>22</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="16">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2">
-        <v>42047</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="M4" s="15">
-        <v>15</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42047</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="M5" s="15">
-        <v>14</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="P5" s="26" t="s">
+      <c r="G9" s="16">
+        <v>72</v>
+      </c>
+      <c r="I9" s="26">
+        <v>42056</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" s="24">
+        <v>72</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="Q5" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2">
-        <v>42052</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="M6" s="15">
-        <v>15</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="2">
-        <v>42052</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="O9" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="15">
-        <v>15</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="P9" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="27"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="B15" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="32"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B18" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="22" t="s">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="32"/>
+    </row>
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B21" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B16" s="23"/>
-    </row>
-    <row r="17" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B17" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="48" x14ac:dyDescent="0.15">
-      <c r="B18" s="25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B20" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="48" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B23" s="24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="48" x14ac:dyDescent="0.15">
-      <c r="B24" s="25" t="s">
-        <v>211</v>
-      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3412,13 +3510,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -3447,6 +3548,23 @@
       </c>
       <c r="I1" s="8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3550,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3578,7 +3696,7 @@
       <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3589,7 +3707,7 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3600,7 +3718,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3611,7 +3729,7 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3622,7 +3740,7 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3633,7 +3751,7 @@
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3644,7 +3762,7 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3655,7 +3773,7 @@
       <c r="B9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3666,7 +3784,7 @@
       <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3677,7 +3795,7 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3688,7 +3806,7 @@
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3699,7 +3817,7 @@
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3710,7 +3828,7 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3721,7 +3839,7 @@
       <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3732,7 +3850,7 @@
       <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3743,7 +3861,7 @@
       <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3754,7 +3872,7 @@
       <c r="B18" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3765,7 +3883,7 @@
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3776,7 +3894,7 @@
       <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3787,7 +3905,7 @@
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3798,7 +3916,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3809,7 +3927,7 @@
       <c r="B23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3820,7 +3938,7 @@
       <c r="B24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3831,7 +3949,7 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3842,7 +3960,7 @@
       <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3853,7 +3971,7 @@
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3864,7 +3982,7 @@
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3875,7 +3993,7 @@
       <c r="B29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3886,7 +4004,7 @@
       <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3897,7 +4015,7 @@
       <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3908,7 +4026,7 @@
       <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3919,7 +4037,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3930,7 +4048,7 @@
       <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3941,7 +4059,7 @@
       <c r="B35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3952,7 +4070,7 @@
       <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3963,7 +4081,7 @@
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3974,7 +4092,7 @@
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3985,7 +4103,7 @@
       <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3996,7 +4114,7 @@
       <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4007,7 +4125,7 @@
       <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4018,7 +4136,7 @@
       <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4029,7 +4147,7 @@
       <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
         <v>61</v>
       </c>
     </row>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D054E5C-DFDF-E243-8CC4-16D9E7CB49FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D8923-2140-9644-802E-D9A4AFDF7F4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="234">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -764,6 +764,19 @@
   </si>
   <si>
     <t>Complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developers should complete user stories on separate branches.
+Each developer should integrate their completed user story into the main script </t>
+  </si>
+  <si>
+    <t>Everyone completed their user story on time!</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
@@ -913,7 +926,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -989,6 +1002,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2157,7 +2173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2283,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2426,6 +2442,12 @@
       <c r="C8" s="17" t="s">
         <v>70</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
@@ -2437,6 +2459,12 @@
       <c r="C9" s="17" t="s">
         <v>166</v>
       </c>
+      <c r="D9" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
@@ -2448,6 +2476,12 @@
       <c r="C10" s="17" t="s">
         <v>72</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
@@ -2493,6 +2527,12 @@
       <c r="C13" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="D13" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
@@ -2504,6 +2544,12 @@
       <c r="C14" s="17" t="s">
         <v>168</v>
       </c>
+      <c r="D14" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
@@ -2515,6 +2561,12 @@
       <c r="C15" s="17" t="s">
         <v>39</v>
       </c>
+      <c r="D15" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
@@ -2527,7 +2579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2538,7 +2590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2549,7 +2601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2560,7 +2612,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2571,7 +2623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2582,7 +2634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2593,7 +2645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2604,7 +2656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2615,7 +2667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2626,7 +2678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2637,7 +2689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2648,7 +2700,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2659,7 +2711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2670,7 +2722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2681,7 +2733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2692,7 +2744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2702,8 +2754,14 @@
       <c r="C32" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.15">
+      <c r="D32" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2715,6 +2773,9 @@
       </c>
       <c r="D33" s="16" t="s">
         <v>195</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2984,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2950,7 +3011,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>24</v>
@@ -2979,14 +3040,14 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F3" s="7">
         <f>(D3-D2)/(E3*60)</f>
-        <v>0.72222222222222221</v>
+        <v>0.73643410852713176</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3017,7 +3078,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3088,7 +3149,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3111,7 +3172,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="26">
         <v>42046</v>
@@ -3158,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="26">
         <v>42046</v>
@@ -3296,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6" s="16">
         <v>0.6</v>
@@ -3311,7 +3372,7 @@
         <v>213</v>
       </c>
       <c r="L6" s="24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>215</v>
@@ -3343,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7" s="16">
         <v>0.6</v>
@@ -3358,7 +3419,7 @@
         <v>214</v>
       </c>
       <c r="L7" s="24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N7" s="29" t="s">
         <v>215</v>
@@ -3392,6 +3453,9 @@
       <c r="G8" s="16">
         <v>22</v>
       </c>
+      <c r="H8" s="16">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="26">
         <v>42055</v>
       </c>
@@ -3435,6 +3499,9 @@
       </c>
       <c r="G9" s="16">
         <v>72</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.6</v>
       </c>
       <c r="I9" s="26">
         <v>42056</v>
@@ -3466,7 +3533,7 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>201</v>
       </c>
@@ -3474,32 +3541,38 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+      <c r="B16" s="32" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="32"/>
-    </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+      <c r="B19" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="32"/>
+      <c r="B22" s="32" t="s">
+        <v>232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3510,62 +3583,251 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="16"/>
+    <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="16"/>
+    <col min="10" max="10" width="11.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="16" style="16" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="16"/>
+    <col min="13" max="13" width="4.1640625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="16"/>
+    <col min="15" max="15" width="15.33203125" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="J1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="16">
+        <v>25</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="16">
+        <v>30</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="16">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="16">
+        <v>25</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="16">
+        <v>25</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="16">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="16">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E2">
+      <c r="E9" s="16">
         <v>25</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B16" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D8923-2140-9644-802E-D9A4AFDF7F4C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5E58D7-C4BE-A342-AB47-AE1045D3D22A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="236">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -674,9 +674,6 @@
     <t>CoderInsomnia</t>
   </si>
   <si>
-    <t>Us10</t>
-  </si>
-  <si>
     <t>Sprint Review:</t>
   </si>
   <si>
@@ -777,6 +774,15 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>createValidDate</t>
+  </si>
+  <si>
+    <t>TestDateValidaiont.py</t>
+  </si>
+  <si>
+    <t>test_createValidDate_xxx</t>
   </si>
 </sst>
 </file>
@@ -926,7 +932,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1005,6 +1011,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2173,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2299,7 +2314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -2344,7 +2359,7 @@
         <v>195</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2361,7 +2376,7 @@
         <v>195</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2378,7 +2393,7 @@
         <v>183</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -2395,7 +2410,7 @@
         <v>183</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2412,7 +2427,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2429,7 +2444,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
@@ -2497,7 +2512,7 @@
         <v>182</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2514,7 +2529,7 @@
         <v>182</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
@@ -2775,7 +2790,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3026,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>24</v>
@@ -3078,7 +3093,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3160,7 +3175,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E2" s="16">
         <v>15</v>
@@ -3178,19 +3193,19 @@
         <v>42046</v>
       </c>
       <c r="J2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>206</v>
       </c>
       <c r="L2" s="24">
         <v>17</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P2" s="27">
         <v>14</v>
@@ -3207,7 +3222,7 @@
         <v>195</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="16">
         <v>15</v>
@@ -3225,19 +3240,19 @@
         <v>42046</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L3" s="24">
         <v>12</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P3" s="24">
         <v>18</v>
@@ -3254,7 +3269,7 @@
         <v>183</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="16">
         <v>15</v>
@@ -3272,19 +3287,19 @@
         <v>42047</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L4" s="24">
         <v>15</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P4" s="24">
         <v>27</v>
@@ -3301,7 +3316,7 @@
         <v>183</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="16">
         <v>15</v>
@@ -3319,19 +3334,19 @@
         <v>42047</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L5" s="24">
         <v>14</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O5" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P5" s="24">
         <v>26</v>
@@ -3348,7 +3363,7 @@
         <v>187</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="16">
         <v>15</v>
@@ -3366,19 +3381,19 @@
         <v>42052</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L6" s="24">
         <v>19</v>
       </c>
       <c r="N6" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" s="29" t="s">
         <v>215</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>216</v>
       </c>
       <c r="P6" s="24">
         <v>6</v>
@@ -3395,7 +3410,7 @@
         <v>187</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="16">
         <v>15</v>
@@ -3413,19 +3428,19 @@
         <v>42052</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L7" s="24">
         <v>19</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O7" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P7" s="24">
         <v>6</v>
@@ -3433,7 +3448,7 @@
     </row>
     <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>73</v>
@@ -3442,7 +3457,7 @@
         <v>182</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="16">
         <v>15</v>
@@ -3460,19 +3475,19 @@
         <v>42055</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L8" s="24">
         <v>22</v>
       </c>
       <c r="N8" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="P8" s="24">
         <v>28</v>
@@ -3489,7 +3504,7 @@
         <v>182</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" s="16">
         <v>15</v>
@@ -3507,19 +3522,19 @@
         <v>42056</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L9" s="24">
         <v>72</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O9" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P9" s="24">
         <v>20</v>
@@ -3533,45 +3548,45 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="28" x14ac:dyDescent="0.15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3583,52 +3598,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="16"/>
-    <col min="10" max="10" width="11.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="16" style="16" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="16"/>
-    <col min="13" max="13" width="4.1640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="16"/>
-    <col min="15" max="15" width="15.33203125" style="16" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="16"/>
+    <col min="3" max="9" width="10.83203125" style="33"/>
+    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="16" style="33" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="33"/>
+    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="35" t="s">
         <v>17</v>
       </c>
       <c r="J1" s="25" t="s">
@@ -3637,197 +3652,203 @@
       <c r="K1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="24"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="25" t="s">
         <v>174</v>
       </c>
       <c r="O1" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="25" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="33">
         <v>25</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="33">
         <v>1</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="33" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="33">
         <v>30</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="33">
         <v>1</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="33" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="33">
         <v>25</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="33">
         <v>1</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="33" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="33">
         <v>25</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="33">
         <v>1</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="33">
         <v>25</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="33">
         <v>1</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="33">
         <v>30</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="33">
         <v>1</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="33">
         <v>25</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="33">
         <v>1</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="33" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="33">
         <v>25</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B16" s="16"/>
+      <c r="G9" s="33">
+        <v>7</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>42065</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="33">
+        <v>7</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="P9" s="33">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code_Modeling\Python\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5E58D7-C4BE-A342-AB47-AE1045D3D22A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,10 +22,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="240">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -783,12 +782,24 @@
   </si>
   <si>
     <t>test_createValidDate_xxx</t>
+  </si>
+  <si>
+    <t>FamilyValidation.py</t>
+  </si>
+  <si>
+    <t>check_multiple_births</t>
+  </si>
+  <si>
+    <t>TestFamilyValidation.py</t>
+  </si>
+  <si>
+    <t>test_check_multiple_births_XXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -932,7 +943,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1019,8 +1030,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1131,7 +1151,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1202,7 +1222,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2185,22 +2205,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2234,7 +2254,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2251,7 +2271,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2268,7 +2288,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2294,16 +2314,16 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{49A63AED-C3AB-914F-94FD-0A9FAD8AE35C}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{14A119CC-64BE-0B4F-8764-C5B562D84392}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{4DA24330-F517-0D4D-9948-B97142B3F94A}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{87852E94-84C5-AB45-B8D8-0876872CAEDA}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{B4808662-EB1F-9E43-8EB1-012970555BBA}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2311,24 +2331,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2362,7 +2382,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2379,7 +2399,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2396,7 +2416,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2413,7 +2433,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2430,7 +2450,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2447,7 +2467,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2464,7 +2484,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2481,7 +2501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2498,7 +2518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2515,7 +2535,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2532,7 +2552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2549,7 +2569,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2566,7 +2586,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2580,10 +2600,10 @@
         <v>195</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2594,7 +2614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2605,7 +2625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2616,7 +2636,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2627,7 +2647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2649,7 +2669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2660,7 +2680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2671,7 +2691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2682,7 +2702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2693,7 +2713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2704,7 +2724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2715,7 +2735,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2726,7 +2746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2737,7 +2757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2759,7 +2779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2801,54 +2821,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2887,7 +2907,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2912,7 +2932,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2937,7 +2957,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2962,7 +2982,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -2995,24 +3015,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3043,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3065,17 +3085,17 @@
         <v>0.73643410852713176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3089,35 +3109,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="16"/>
+    <col min="13" max="13" width="1.81640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3164,7 +3184,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3211,7 +3231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3258,7 +3278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3305,7 +3325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3352,7 +3372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3399,7 +3419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3446,7 +3466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3493,7 +3513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3540,7 +3560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3548,43 +3568,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="61.2" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3597,28 +3617,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.81640625" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="33"/>
-    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.81640625" style="33"/>
+    <col min="10" max="10" width="13.81640625" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="33"/>
-    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="12" width="10.81640625" style="33"/>
+    <col min="13" max="13" width="4.1796875" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.81640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3666,208 +3686,249 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="37">
         <v>25</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="37">
         <v>1</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="37">
         <v>30</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="37">
         <v>25</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="37">
         <v>25</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="37">
         <v>25</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="37">
         <v>1</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="33">
+      <c r="D7" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="37">
         <v>30</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="37">
         <v>1</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+      <c r="G7" s="36">
+        <v>32</v>
+      </c>
+      <c r="H7" s="36">
+        <v>3</v>
+      </c>
+      <c r="I7" s="39">
+        <v>42073</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="37">
+        <v>32</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="37">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="37">
         <v>25</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="37">
         <v>1</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="33">
+      <c r="D9" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="37">
         <v>25</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="37">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="37">
         <v>7</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="37">
         <v>1</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="38">
         <v>42065</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="37">
         <v>7</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="37">
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3903,16 +3964,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3948,20 +4009,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -3972,7 +4033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3983,7 +4044,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -3994,7 +4055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4005,7 +4066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4016,7 +4077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4027,7 +4088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4038,7 +4099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4049,7 +4110,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4060,7 +4121,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4071,7 +4132,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4082,7 +4143,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4093,7 +4154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4104,7 +4165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4115,7 +4176,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4126,7 +4187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4137,7 +4198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4148,7 +4209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4159,7 +4220,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4170,7 +4231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4181,7 +4242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4192,7 +4253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4203,7 +4264,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4214,7 +4275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4225,7 +4286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4236,7 +4297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4247,7 +4308,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4258,7 +4319,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4269,7 +4330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4280,7 +4341,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4291,7 +4352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4302,7 +4363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4313,7 +4374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4324,7 +4385,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4335,7 +4396,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4346,7 +4407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4357,7 +4418,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4368,7 +4429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4379,7 +4440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4390,7 +4451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4401,7 +4462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4412,7 +4473,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4423,7 +4484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code_Modeling\Python\SSW555-DriverlessCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBAC4FE-BDCC-274A-8D75-AAD197B861D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,16 +23,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="242">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -794,12 +789,18 @@
   </si>
   <si>
     <t>test_check_multiple_births_XXX</t>
+  </si>
+  <si>
+    <t>SiblingSpacing.py</t>
+  </si>
+  <si>
+    <t>valid_sibling_spacing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1151,7 +1152,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1222,7 +1223,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2205,22 +2206,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2319,11 +2320,11 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2331,24 +2332,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="16"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2647,7 +2648,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2821,54 +2822,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2907,7 +2908,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3015,24 +3016,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3085,17 +3086,17 @@
         <v>0.73643410852713176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3109,35 +3110,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.81640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.81640625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.81640625" style="16"/>
+    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3568,43 +3569,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="61.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3617,28 +3618,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.81640625" style="33"/>
-    <col min="10" max="10" width="13.81640625" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="33"/>
+    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" style="33"/>
-    <col min="13" max="13" width="4.1796875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.81640625" style="33"/>
+    <col min="12" max="12" width="10.83203125" style="33"/>
+    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3706,7 +3707,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3726,7 +3727,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3746,7 +3747,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3776,6 +3777,9 @@
       <c r="C6" s="37" t="s">
         <v>182</v>
       </c>
+      <c r="D6" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="E6" s="37">
         <v>25</v>
       </c>
@@ -3784,9 +3788,17 @@
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="I6" s="39">
+        <v>42075</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -3833,7 +3845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -3853,7 +3865,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -3900,17 +3912,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3919,16 +3931,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3964,16 +3976,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4009,20 +4021,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4033,7 +4045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4044,7 +4056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4055,7 +4067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4066,7 +4078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4099,7 +4111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4110,7 +4122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4121,7 +4133,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4132,7 +4144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4154,7 +4166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4165,7 +4177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4187,7 +4199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4198,7 +4210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4220,7 +4232,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4231,7 +4243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4264,7 +4276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4275,7 +4287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4286,7 +4298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4319,7 +4331,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4330,7 +4342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4341,7 +4353,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4352,7 +4364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4363,7 +4375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4374,7 +4386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4396,7 +4408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4407,7 +4419,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4418,7 +4430,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4429,7 +4441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4462,7 +4474,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4473,7 +4485,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4484,7 +4496,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBAC4FE-BDCC-274A-8D75-AAD197B861D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A9759-E8C7-0D46-9E52-DA9435E942CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -773,9 +773,6 @@
     <t>createValidDate</t>
   </si>
   <si>
-    <t>TestDateValidaiont.py</t>
-  </si>
-  <si>
     <t>test_createValidDate_xxx</t>
   </si>
   <si>
@@ -795,6 +792,18 @@
   </si>
   <si>
     <t>valid_sibling_spacing</t>
+  </si>
+  <si>
+    <t>partial_date_check</t>
+  </si>
+  <si>
+    <t>TestSiblingSpacing.py</t>
+  </si>
+  <si>
+    <t>test_partial_date_check_XXX</t>
+  </si>
+  <si>
+    <t>test_valid_sibling_spacing_XXX</t>
   </si>
 </sst>
 </file>
@@ -3621,8 +3630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3632,7 +3641,7 @@
     <col min="3" max="9" width="10.83203125" style="33"/>
     <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="33"/>
+    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
     <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
@@ -3786,16 +3795,32 @@
       <c r="F6" s="37">
         <v>1</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
+      <c r="G6" s="36">
+        <v>30</v>
+      </c>
+      <c r="H6" s="36">
+        <v>2</v>
+      </c>
       <c r="I6" s="39">
         <v>42075</v>
       </c>
       <c r="J6" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>241</v>
+      <c r="L6" s="37">
+        <v>13</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="P6" s="37">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
@@ -3827,25 +3852,25 @@
         <v>42073</v>
       </c>
       <c r="J7" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="37" t="s">
         <v>236</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>237</v>
       </c>
       <c r="L7" s="37">
         <v>32</v>
       </c>
       <c r="N7" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>238</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>239</v>
       </c>
       <c r="P7" s="37">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -3855,15 +3880,42 @@
       <c r="C8" s="37" t="s">
         <v>182</v>
       </c>
+      <c r="D8" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="E8" s="37">
         <v>25</v>
       </c>
       <c r="F8" s="37">
         <v>1</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="G8" s="36">
+        <v>56</v>
+      </c>
+      <c r="H8" s="36">
+        <v>1</v>
+      </c>
+      <c r="I8" s="39">
+        <v>42076</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="37">
+        <v>11</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="37">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
@@ -3903,10 +3955,10 @@
         <v>7</v>
       </c>
       <c r="N9" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="O9" s="37" t="s">
         <v>234</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>235</v>
       </c>
       <c r="P9" s="37">
         <v>15</v>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Documents\GitHub\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A9759-E8C7-0D46-9E52-DA9435E942CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9318E2F-C1F2-44CC-B778-2FBB8F252DD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="18000" windowHeight="9398" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,20 +23,23 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="253">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -804,6 +807,30 @@
   </si>
   <si>
     <t>test_valid_sibling_spacing_XXX</t>
+  </si>
+  <si>
+    <t>ParentsNotTooOld.py</t>
+  </si>
+  <si>
+    <t>parents_too_old</t>
+  </si>
+  <si>
+    <t>BirthBeforeDEath.py</t>
+  </si>
+  <si>
+    <t>birth_before_death</t>
+  </si>
+  <si>
+    <t>TestBirthBeforeDeath.py</t>
+  </si>
+  <si>
+    <t>TestParentsTooOld.py</t>
+  </si>
+  <si>
+    <t>test_parents_not_too_old</t>
+  </si>
+  <si>
+    <t>test_birth_before_death</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1188,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1232,7 +1259,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2222,15 +2249,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46875" customWidth="1"/>
+    <col min="4" max="5" width="20.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2247,7 +2274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2264,7 +2291,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2281,7 +2308,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2298,7 +2325,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2315,7 +2342,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2344,21 +2371,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="6.8203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.17578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.46875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.64453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2392,7 +2419,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2409,7 +2436,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2426,7 +2453,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2470,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2460,7 +2487,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2477,7 +2504,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2521,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2511,7 +2538,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2525,10 +2552,10 @@
         <v>187</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2545,7 +2572,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2562,7 +2589,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2576,10 +2603,10 @@
         <v>187</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2596,7 +2623,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2613,7 +2640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2624,7 +2651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2635,7 +2662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2646,7 +2673,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2657,7 +2684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2668,7 +2695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2679,7 +2706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2690,7 +2717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2701,7 +2728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2712,7 +2739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2723,7 +2750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2734,7 +2761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2745,7 +2772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2756,7 +2783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2767,7 +2794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2778,7 +2805,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2789,7 +2816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2806,7 +2833,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2838,47 +2865,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="9.46875" customWidth="1"/>
+    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3515625" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2901,7 +2928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2917,7 +2944,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2942,7 +2969,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2967,7 +2994,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2992,7 +3019,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3032,17 +3059,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="16.64453125" customWidth="1"/>
+    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.17578125" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3073,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3095,17 +3122,17 @@
         <v>0.73643410852713176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3126,28 +3153,28 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.46875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.64453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.8203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.8203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="16"/>
+    <col min="13" max="13" width="1.8203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.8203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.8203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.17578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.8203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3221,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3241,7 +3268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3335,7 +3362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3382,7 +3409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3429,7 +3456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3476,7 +3503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="37.15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3523,7 +3550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3570,7 +3597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3578,43 +3605,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="58.5" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3631,24 +3658,24 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.8203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="33"/>
-    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.8203125" style="33"/>
+    <col min="10" max="10" width="13.8203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="12" width="15.8203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.17578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.8203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.3515625" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.8203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3696,7 +3723,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="37.15" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3716,7 +3743,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="37.15" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3736,7 +3763,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3746,17 +3773,44 @@
       <c r="C4" s="37" t="s">
         <v>187</v>
       </c>
+      <c r="D4" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="E4" s="37">
         <v>25</v>
       </c>
       <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="36">
+        <v>40</v>
+      </c>
+      <c r="H4" s="36">
+        <v>2</v>
+      </c>
+      <c r="I4" s="39">
+        <v>42078</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="37">
+        <v>31</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="P4" s="37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3766,17 +3820,44 @@
       <c r="C5" s="37" t="s">
         <v>187</v>
       </c>
+      <c r="D5" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="E5" s="37">
         <v>25</v>
       </c>
       <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="G5" s="36">
+        <v>30</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <v>42078</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="37">
+        <v>26</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="P5" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3823,7 +3904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -3870,7 +3951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -3917,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -3964,17 +4045,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3990,9 +4071,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4035,9 +4116,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4080,13 +4161,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4097,7 +4178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4108,7 +4189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4119,7 +4200,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4130,7 +4211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4141,7 +4222,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4152,7 +4233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4163,7 +4244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4174,7 +4255,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4185,7 +4266,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4196,7 +4277,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4207,7 +4288,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4218,7 +4299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4229,7 +4310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4240,7 +4321,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4251,7 +4332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4262,7 +4343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4273,7 +4354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4284,7 +4365,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4295,7 +4376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4306,7 +4387,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4317,7 +4398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4328,7 +4409,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4339,7 +4420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4350,7 +4431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4361,7 +4442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4372,7 +4453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4383,7 +4464,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4394,7 +4475,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4405,7 +4486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4416,7 +4497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4427,7 +4508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4438,7 +4519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4449,7 +4530,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4460,7 +4541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4471,7 +4552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4482,7 +4563,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4493,7 +4574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4504,7 +4585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4515,7 +4596,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4526,7 +4607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4537,7 +4618,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4548,7 +4629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A9759-E8C7-0D46-9E52-DA9435E942CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9C581A-3DB0-824A-AD7C-256E92AF887F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,16 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="253">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -804,6 +810,30 @@
   </si>
   <si>
     <t>test_valid_sibling_spacing_XXX</t>
+  </si>
+  <si>
+    <t>less_than_150.py</t>
+  </si>
+  <si>
+    <t>lessthan_150.py</t>
+  </si>
+  <si>
+    <t>test_lessthan_150.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_no_parameter, test_alive_less/more_than_150,test_dead_less/more_than_150 </t>
+  </si>
+  <si>
+    <t>birth_before_parent_marriage.py</t>
+  </si>
+  <si>
+    <t>birth_before_parent_marriage</t>
+  </si>
+  <si>
+    <t>test_birth_before_parent_marriage.py</t>
+  </si>
+  <si>
+    <t>test_valid_birth_before_parent_marriage,test_birth_before_parent_marriage_XXX,test_after_parent_divorce</t>
   </si>
 </sst>
 </file>
@@ -2324,7 +2354,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2344,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2375,7 +2405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2392,7 +2422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2409,7 +2439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2426,7 +2456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2473,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2460,7 +2490,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2477,7 +2507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2508,10 +2538,10 @@
         <v>183</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2525,10 +2555,10 @@
         <v>187</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2545,7 +2575,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2562,7 +2592,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2579,7 +2609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2596,7 +2626,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2613,7 +2643,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2624,7 +2654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2635,7 +2665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2646,7 +2676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2657,7 +2687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2668,7 +2698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2679,7 +2709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2690,7 +2720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2701,7 +2731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2712,7 +2742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2723,7 +2753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2734,7 +2764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2745,7 +2775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2756,7 +2786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2767,7 +2797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2778,7 +2808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2789,7 +2819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2806,7 +2836,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -3147,7 +3177,7 @@
     <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3241,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3335,7 +3365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3382,7 +3412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3429,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3476,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3523,7 +3553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3578,7 +3608,7 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
@@ -3586,12 +3616,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
@@ -3599,17 +3629,17 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
@@ -3631,7 +3661,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3696,7 +3726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3712,11 +3742,35 @@
       <c r="F2" s="37">
         <v>1</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="G2" s="36">
+        <v>35</v>
+      </c>
+      <c r="H2" s="36">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39">
+        <v>42074</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="37">
+        <v>21</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3732,11 +3786,35 @@
       <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="G3" s="36">
+        <v>48</v>
+      </c>
+      <c r="H3" s="36">
+        <v>3</v>
+      </c>
+      <c r="I3" s="39">
+        <v>42075</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="37">
+        <v>35</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="P3" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3756,7 +3834,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3776,7 +3854,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3823,7 +3901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -3870,7 +3948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -3917,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -3992,7 +4070,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4037,7 +4115,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4086,7 +4164,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4097,7 +4175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4108,7 +4186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4119,7 +4197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4130,7 +4208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4141,7 +4219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4152,7 +4230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4163,7 +4241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4174,7 +4252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4185,7 +4263,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4196,7 +4274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4207,7 +4285,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4218,7 +4296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4229,7 +4307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4240,7 +4318,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4251,7 +4329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4262,7 +4340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4273,7 +4351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4284,7 +4362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4295,7 +4373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4306,7 +4384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4317,7 +4395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4328,7 +4406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4339,7 +4417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4350,7 +4428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4361,7 +4439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4372,7 +4450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4383,7 +4461,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4394,7 +4472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4405,7 +4483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4416,7 +4494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4427,7 +4505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4438,7 +4516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4449,7 +4527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4460,7 +4538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4471,7 +4549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4482,7 +4560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4493,7 +4571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4504,7 +4582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4515,7 +4593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4526,7 +4604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4537,7 +4615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4548,7 +4626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Documents\GitHub\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9318E2F-C1F2-44CC-B778-2FBB8F252DD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C89F89-F847-4A3D-8965-414D0628248C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1380" windowWidth="18000" windowHeight="9398" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -34,12 +33,15 @@
         <xcalcf:feature name="microsoft.com:RD"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -809,28 +811,52 @@
     <t>test_valid_sibling_spacing_XXX</t>
   </si>
   <si>
+    <t>less_than_150.py</t>
+  </si>
+  <si>
+    <t>lessthan_150.py</t>
+  </si>
+  <si>
+    <t>test_lessthan_150.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_no_parameter, test_alive_less/more_than_150,test_dead_less/more_than_150 </t>
+  </si>
+  <si>
+    <t>birth_before_parent_marriage.py</t>
+  </si>
+  <si>
+    <t>birth_before_parent_marriage</t>
+  </si>
+  <si>
+    <t>test_birth_before_parent_marriage.py</t>
+  </si>
+  <si>
+    <t>test_valid_birth_before_parent_marriage,test_birth_before_parent_marriage_XXX,test_after_parent_divorce</t>
+  </si>
+  <si>
+    <t>BirthBeforeDEath.py</t>
+  </si>
+  <si>
+    <t>birth_before_death</t>
+  </si>
+  <si>
+    <t>TestBirthBeforeDeath.py</t>
+  </si>
+  <si>
+    <t>test_birth_before_death</t>
+  </si>
+  <si>
     <t>ParentsNotTooOld.py</t>
   </si>
   <si>
     <t>parents_too_old</t>
   </si>
   <si>
-    <t>BirthBeforeDEath.py</t>
-  </si>
-  <si>
-    <t>birth_before_death</t>
-  </si>
-  <si>
-    <t>TestBirthBeforeDeath.py</t>
-  </si>
-  <si>
     <t>TestParentsTooOld.py</t>
   </si>
   <si>
     <t>test_parents_not_too_old</t>
-  </si>
-  <si>
-    <t>test_birth_before_death</t>
   </si>
 </sst>
 </file>
@@ -2371,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2535,7 +2561,7 @@
         <v>183</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
@@ -2603,7 +2629,7 @@
         <v>187</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
@@ -3658,7 +3684,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3723,7 +3749,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="37.15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3739,11 +3765,35 @@
       <c r="F2" s="37">
         <v>1</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="37.15" x14ac:dyDescent="0.3">
+      <c r="G2" s="36">
+        <v>35</v>
+      </c>
+      <c r="H2" s="36">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39">
+        <v>42074</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="37">
+        <v>21</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="86.65" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3759,9 +3809,33 @@
       <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="G3" s="36">
+        <v>48</v>
+      </c>
+      <c r="H3" s="36">
+        <v>3</v>
+      </c>
+      <c r="I3" s="39">
+        <v>42075</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="37">
+        <v>35</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="P3" s="37">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
@@ -3774,7 +3848,7 @@
         <v>187</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E4" s="37">
         <v>25</v>
@@ -3792,19 +3866,19 @@
         <v>42078</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L4" s="37">
         <v>31</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P4" s="37">
         <v>18</v>
@@ -3821,7 +3895,7 @@
         <v>187</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E5" s="37">
         <v>25</v>
@@ -3839,19 +3913,19 @@
         <v>42078</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L5" s="37">
         <v>26</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="P5" s="37">
         <v>16</v>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Documents\GitHub\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7A9759-E8C7-0D46-9E52-DA9435E942CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C89F89-F847-4A3D-8965-414D0628248C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,15 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -804,6 +809,54 @@
   </si>
   <si>
     <t>test_valid_sibling_spacing_XXX</t>
+  </si>
+  <si>
+    <t>less_than_150.py</t>
+  </si>
+  <si>
+    <t>lessthan_150.py</t>
+  </si>
+  <si>
+    <t>test_lessthan_150.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_no_parameter, test_alive_less/more_than_150,test_dead_less/more_than_150 </t>
+  </si>
+  <si>
+    <t>birth_before_parent_marriage.py</t>
+  </si>
+  <si>
+    <t>birth_before_parent_marriage</t>
+  </si>
+  <si>
+    <t>test_birth_before_parent_marriage.py</t>
+  </si>
+  <si>
+    <t>test_valid_birth_before_parent_marriage,test_birth_before_parent_marriage_XXX,test_after_parent_divorce</t>
+  </si>
+  <si>
+    <t>BirthBeforeDEath.py</t>
+  </si>
+  <si>
+    <t>birth_before_death</t>
+  </si>
+  <si>
+    <t>TestBirthBeforeDeath.py</t>
+  </si>
+  <si>
+    <t>test_birth_before_death</t>
+  </si>
+  <si>
+    <t>ParentsNotTooOld.py</t>
+  </si>
+  <si>
+    <t>parents_too_old</t>
+  </si>
+  <si>
+    <t>TestParentsTooOld.py</t>
+  </si>
+  <si>
+    <t>test_parents_not_too_old</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1214,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1232,7 +1285,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2222,15 +2275,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46875" customWidth="1"/>
+    <col min="4" max="5" width="20.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2247,7 +2300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2264,7 +2317,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2281,7 +2334,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2298,7 +2351,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2315,7 +2368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2344,21 +2397,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="6.8203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.17578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.46875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.64453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.8203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2375,7 +2428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2392,7 +2445,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2409,7 +2462,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2426,7 +2479,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2496,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2460,7 +2513,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2477,7 +2530,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2494,7 +2547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2508,10 +2561,10 @@
         <v>183</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2525,10 +2578,10 @@
         <v>187</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2545,7 +2598,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2562,7 +2615,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2579,7 +2632,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2596,7 +2649,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2613,7 +2666,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2624,7 +2677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2635,7 +2688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2646,7 +2699,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2657,7 +2710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2668,7 +2721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2679,7 +2732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2690,7 +2743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2701,7 +2754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2712,7 +2765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2723,7 +2776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2734,7 +2787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2745,7 +2798,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2756,7 +2809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2767,7 +2820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2778,7 +2831,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2789,7 +2842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2806,7 +2859,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2838,47 +2891,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="9.46875" customWidth="1"/>
+    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3515625" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2901,7 +2954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2917,7 +2970,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2942,7 +2995,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -2967,7 +3020,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -2992,7 +3045,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3032,17 +3085,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.8203125" style="2"/>
+    <col min="2" max="2" width="16.64453125" customWidth="1"/>
+    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.17578125" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3073,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3095,17 +3148,17 @@
         <v>0.73643410852713176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3126,28 +3179,28 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.46875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.64453125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.46875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.64453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.8203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.8203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="16"/>
+    <col min="13" max="13" width="1.8203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.8203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.8203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.17578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.8203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3194,7 +3247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3241,7 +3294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3288,7 +3341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3335,7 +3388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3382,7 +3435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3429,7 +3482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3476,7 +3529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="37.15" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3523,7 +3576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3570,7 +3623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3578,43 +3631,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="58.5" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3631,24 +3684,24 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.8203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="33"/>
-    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.8203125" style="33"/>
+    <col min="10" max="10" width="13.8203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="12" width="15.8203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.17578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.8203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.3515625" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.8203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3696,7 +3749,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="74.25" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3712,11 +3765,35 @@
       <c r="F2" s="37">
         <v>1</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="G2" s="36">
+        <v>35</v>
+      </c>
+      <c r="H2" s="36">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39">
+        <v>42074</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="37">
+        <v>21</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" s="37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="86.65" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3732,11 +3809,35 @@
       <c r="F3" s="37">
         <v>1</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="G3" s="36">
+        <v>48</v>
+      </c>
+      <c r="H3" s="36">
+        <v>3</v>
+      </c>
+      <c r="I3" s="39">
+        <v>42075</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="37">
+        <v>35</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="P3" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3746,17 +3847,44 @@
       <c r="C4" s="37" t="s">
         <v>187</v>
       </c>
+      <c r="D4" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="E4" s="37">
         <v>25</v>
       </c>
       <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="36">
+        <v>40</v>
+      </c>
+      <c r="H4" s="36">
+        <v>2</v>
+      </c>
+      <c r="I4" s="39">
+        <v>42078</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="L4" s="37">
+        <v>31</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="P4" s="37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3766,17 +3894,44 @@
       <c r="C5" s="37" t="s">
         <v>187</v>
       </c>
+      <c r="D5" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="E5" s="37">
         <v>25</v>
       </c>
       <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="G5" s="36">
+        <v>30</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <v>42078</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" s="37">
+        <v>26</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="P5" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3823,7 +3978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -3870,7 +4025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -3917,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -3964,17 +4119,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3990,9 +4145,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4035,9 +4190,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4080,13 +4235,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4097,7 +4252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4108,7 +4263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4119,7 +4274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4130,7 +4285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4141,7 +4296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4152,7 +4307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4163,7 +4318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4174,7 +4329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4185,7 +4340,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4196,7 +4351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4207,7 +4362,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4218,7 +4373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4229,7 +4384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4240,7 +4395,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4251,7 +4406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4262,7 +4417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4273,7 +4428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4284,7 +4439,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4295,7 +4450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4306,7 +4461,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4317,7 +4472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4328,7 +4483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4339,7 +4494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4350,7 +4505,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4361,7 +4516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4372,7 +4527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4383,7 +4538,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4394,7 +4549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4405,7 +4560,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4416,7 +4571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4427,7 +4582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4438,7 +4593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4449,7 +4604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4460,7 +4615,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4471,7 +4626,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4482,7 +4637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4493,7 +4648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4504,7 +4659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4515,7 +4670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4526,7 +4681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4537,7 +4692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4548,7 +4703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Documents\GitHub\SSW555-DriverlessCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C89F89-F847-4A3D-8965-414D0628248C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B9D4C-7874-A04D-BE0A-40C9EA7C6343}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="253">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -833,30 +834,6 @@
   </si>
   <si>
     <t>test_valid_birth_before_parent_marriage,test_birth_before_parent_marriage_XXX,test_after_parent_divorce</t>
-  </si>
-  <si>
-    <t>BirthBeforeDEath.py</t>
-  </si>
-  <si>
-    <t>birth_before_death</t>
-  </si>
-  <si>
-    <t>TestBirthBeforeDeath.py</t>
-  </si>
-  <si>
-    <t>test_birth_before_death</t>
-  </si>
-  <si>
-    <t>ParentsNotTooOld.py</t>
-  </si>
-  <si>
-    <t>parents_too_old</t>
-  </si>
-  <si>
-    <t>TestParentsTooOld.py</t>
-  </si>
-  <si>
-    <t>test_parents_not_too_old</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1191,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1285,7 +1262,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2275,15 +2252,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46875" customWidth="1"/>
-    <col min="4" max="5" width="20.46875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2300,7 +2277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2317,7 +2294,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2334,7 +2311,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2351,7 +2328,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2368,7 +2345,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2377,7 +2354,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2397,21 +2374,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.8203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.17578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.46875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.64453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.3515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8203125" style="16"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2428,7 +2405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2445,7 +2422,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2462,7 +2439,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2479,7 +2456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2496,7 +2473,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2513,7 +2490,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2530,7 +2507,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2544,10 +2521,10 @@
         <v>183</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2564,7 +2541,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2581,7 +2558,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2598,7 +2575,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2615,7 +2592,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2632,7 +2609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2649,7 +2626,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2666,7 +2643,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2677,7 +2654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +2665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2699,7 +2676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2710,7 +2687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2721,7 +2698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2732,7 +2709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2743,7 +2720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2754,7 +2731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2765,7 +2742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2776,7 +2753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2787,7 +2764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2798,7 +2775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2809,7 +2786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2820,7 +2797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2831,7 +2808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2842,7 +2819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2859,7 +2836,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2891,47 +2868,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="9.46875" customWidth="1"/>
-    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2954,7 +2931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2970,7 +2947,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2995,7 +2972,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3020,7 +2997,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3045,7 +3022,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3085,17 +3062,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="16.64453125" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.17578125" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +3092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3126,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3148,17 +3125,17 @@
         <v>0.73643410852713176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3179,28 +3156,28 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.3515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.46875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.64453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.8203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.8203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.8203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.8203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.8203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.17578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.8203125" style="16"/>
+    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3294,7 +3271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3341,7 +3318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3388,7 +3365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3435,7 +3412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3482,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3529,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="37.15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3576,7 +3553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3623,7 +3600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3631,43 +3608,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="58.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3683,25 +3660,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.8203125" style="33"/>
-    <col min="10" max="10" width="13.8203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="33"/>
+    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.8203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.17578125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.8203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.3515625" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.8203125" style="33"/>
+    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3749,7 +3726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3793,7 +3770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="86.65" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3837,7 +3814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3847,44 +3824,17 @@
       <c r="C4" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>219</v>
-      </c>
       <c r="E4" s="37">
         <v>25</v>
       </c>
       <c r="F4" s="37">
         <v>1</v>
       </c>
-      <c r="G4" s="36">
-        <v>40</v>
-      </c>
-      <c r="H4" s="36">
-        <v>2</v>
-      </c>
-      <c r="I4" s="39">
-        <v>42078</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" s="37">
-        <v>31</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="P4" s="37">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3894,44 +3844,17 @@
       <c r="C5" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>219</v>
-      </c>
       <c r="E5" s="37">
         <v>25</v>
       </c>
       <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="36">
-        <v>30</v>
-      </c>
-      <c r="H5" s="36">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>42078</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="L5" s="37">
-        <v>26</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="P5" s="37">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3978,7 +3901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4025,7 +3948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4072,7 +3995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4119,17 +4042,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4145,9 +4068,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4190,9 +4113,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4235,13 +4158,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4252,7 +4175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +4186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4274,7 +4197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4285,7 +4208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4296,7 +4219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4307,7 +4230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4318,7 +4241,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4329,7 +4252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4340,7 +4263,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4351,7 +4274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4362,7 +4285,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4373,7 +4296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4384,7 +4307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4395,7 +4318,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4406,7 +4329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4417,7 +4340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4428,7 +4351,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4439,7 +4362,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4450,7 +4373,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4461,7 +4384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4472,7 +4395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4483,7 +4406,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4494,7 +4417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4505,7 +4428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4516,7 +4439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4527,7 +4450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4538,7 +4461,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4549,7 +4472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4560,7 +4483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4571,7 +4494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4582,7 +4505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4593,7 +4516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4604,7 +4527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4615,7 +4538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4626,7 +4549,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4637,7 +4560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4648,7 +4571,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4659,7 +4582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4670,7 +4593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4681,7 +4604,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4692,7 +4615,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4703,7 +4626,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasto\Documents\GitHub\SSW555-DriverlessCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C89F89-F847-4A3D-8965-414D0628248C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A501C0-8A75-B544-AA89-103F1126CA54}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="261">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1214,7 +1209,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1285,7 +1280,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2275,15 +2270,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.8203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.64453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46875" customWidth="1"/>
-    <col min="4" max="5" width="20.46875" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2300,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2317,7 +2312,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2351,7 +2346,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2368,7 +2363,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2401,17 +2396,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.8203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.17578125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.46875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.64453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.3515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.8203125" style="16"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2428,7 +2423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2445,7 +2440,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2462,7 +2457,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2479,7 +2474,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2496,7 +2491,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2513,7 +2508,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2530,7 +2525,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2547,7 +2542,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2564,7 +2559,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2581,7 +2576,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2598,7 +2593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2615,7 +2610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2632,7 +2627,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2649,7 +2644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2666,7 +2661,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2677,7 +2672,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +2683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2699,7 +2694,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2710,7 +2705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2721,7 +2716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2732,7 +2727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2743,7 +2738,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2754,7 +2749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2765,7 +2760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2776,7 +2771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2787,7 +2782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2798,7 +2793,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2809,7 +2804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2831,7 +2826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2842,7 +2837,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2859,7 +2854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2891,47 +2886,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="9.46875" customWidth="1"/>
-    <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3515625" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -2954,7 +2949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2970,7 +2965,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3020,7 +3015,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3045,7 +3040,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3085,17 +3080,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="2"/>
-    <col min="2" max="2" width="16.64453125" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.17578125" customWidth="1"/>
-    <col min="5" max="5" width="6.8203125" customWidth="1"/>
-    <col min="6" max="6" width="12.46875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3126,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3148,17 +3143,17 @@
         <v>0.73643410852713176</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42072</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3179,28 +3174,28 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.3515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.64453125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.46875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.64453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.8203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.8203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.8203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.8203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.8203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.17578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.8203125" style="16"/>
+    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +3242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3294,7 +3289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3341,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3388,7 +3383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3435,7 +3430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3482,7 +3477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3529,7 +3524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="37.15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3576,7 +3571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3623,7 +3618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3631,43 +3626,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="58.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3684,24 +3679,24 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.8203125" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.8203125" style="33"/>
-    <col min="10" max="10" width="13.8203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="33"/>
+    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.8203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.17578125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.8203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.3515625" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.8203125" style="33"/>
+    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3749,16 +3744,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="74.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>60</v>
+      <c r="B2" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>183</v>
       </c>
+      <c r="D2" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="E2" s="37">
         <v>25</v>
       </c>
@@ -3793,16 +3791,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="86.65" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>60</v>
+      <c r="B3" t="s">
+        <v>152</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>183</v>
       </c>
+      <c r="D3" s="37" t="s">
+        <v>219</v>
+      </c>
       <c r="E3" s="37">
         <v>30</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4119,17 +4120,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4145,9 +4146,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4190,9 +4191,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4231,17 +4232,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.17578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4571,7 +4572,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A501C0-8A75-B544-AA89-103F1126CA54}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C404FD11-BFD3-3E4B-93E7-2A84040BC8B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,16 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1377,6 +1383,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,7 +2381,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2423,7 +2432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2457,7 +2466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2474,7 +2483,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2508,7 +2517,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2593,7 +2602,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2644,7 +2653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2661,7 +2670,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2672,7 +2681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2683,7 +2692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2694,7 +2703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2716,7 +2725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2793,7 +2802,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2804,7 +2813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2815,7 +2824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2837,7 +2846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2854,7 +2863,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2882,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -3076,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3146,6 +3155,18 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42072</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3195,7 +3216,7 @@
     <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3242,7 +3263,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3289,7 +3310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3336,7 +3357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3383,7 +3404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3430,7 +3451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3477,7 +3498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3524,7 +3545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3571,7 +3592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3626,7 +3647,7 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
@@ -3634,12 +3655,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
@@ -3647,17 +3668,17 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
@@ -3678,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3744,7 +3765,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3791,7 +3812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3838,7 +3859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3885,7 +3906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -3932,7 +3953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -3979,7 +4000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4026,7 +4047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4073,7 +4094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4148,7 +4169,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4193,7 +4214,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4242,7 +4263,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4253,7 +4274,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4264,7 +4285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4275,7 +4296,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4286,7 +4307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4297,7 +4318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4308,7 +4329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4319,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4330,7 +4351,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4341,7 +4362,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4352,7 +4373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4363,7 +4384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4374,7 +4395,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4385,7 +4406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4396,7 +4417,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4407,7 +4428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4418,7 +4439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4429,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4440,7 +4461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4451,7 +4472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4462,7 +4483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4473,7 +4494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4484,7 +4505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4495,7 +4516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4506,7 +4527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4517,7 +4538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4528,7 +4549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4539,7 +4560,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4550,7 +4571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4561,7 +4582,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4572,7 +4593,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4583,7 +4604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4594,7 +4615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4605,7 +4626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4616,7 +4637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4627,7 +4648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4638,7 +4659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4649,7 +4670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4660,7 +4681,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4671,7 +4692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4682,7 +4703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4693,7 +4714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4704,7 +4725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C404FD11-BFD3-3E4B-93E7-2A84040BC8B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE2D72-E939-6A4D-A558-6C6D6FF76175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2891,8 +2891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3086,7 +3086,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E7" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3148,8 +3148,8 @@
         <v>4.3</v>
       </c>
       <c r="F3" s="7">
-        <f>(D3-D2)/(E3*60)</f>
-        <v>0.73643410852713176</v>
+        <f>(D3-D2)/(E3)</f>
+        <v>44.186046511627907</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -3163,10 +3163,14 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>176</v>
+        <v>366</v>
       </c>
       <c r="E4">
         <v>15</v>
+      </c>
+      <c r="F4" s="7">
+        <f>(D4-D3)/(E4)</f>
+        <v>11.733333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -3699,8 +3703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE2D72-E939-6A4D-A558-6C6D6FF76175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F19390C-D01D-A94F-817B-CDF70F30ED5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24200" windowHeight="13100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="264">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -858,6 +858,15 @@
   </si>
   <si>
     <t>test_parents_not_too_old</t>
+  </si>
+  <si>
+    <t>The time it would take to integrate our stories into the main script.</t>
+  </si>
+  <si>
+    <t>Stepping up and working as a team to integrate our stories</t>
+  </si>
+  <si>
+    <t>Leaving enough time to integrate so we are not rushing to do so last minute, that way we can use the group collective to solve any problems we may have</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1370,7 @@
                   <c:v>42058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42072</c:v>
+                  <c:v>42079</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42093</c:v>
@@ -2275,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2401,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2548,7 +2557,7 @@
         <v>183</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -2633,7 +2642,7 @@
         <v>187</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
@@ -2650,7 +2659,7 @@
         <v>182</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2680,6 +2689,12 @@
       <c r="C16" s="17" t="s">
         <v>40</v>
       </c>
+      <c r="D16" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
@@ -2691,6 +2706,12 @@
       <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="D17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
@@ -2702,6 +2723,12 @@
       <c r="C18" s="17" t="s">
         <v>171</v>
       </c>
+      <c r="D18" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
@@ -2713,6 +2740,12 @@
       <c r="C19" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="D19" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
@@ -2801,6 +2834,12 @@
       <c r="C27" s="17" t="s">
         <v>170</v>
       </c>
+      <c r="D27" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
@@ -2823,6 +2862,12 @@
       <c r="C29" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="D29" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
@@ -2834,6 +2879,12 @@
       <c r="C30" s="17" t="s">
         <v>51</v>
       </c>
+      <c r="D30" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
@@ -2845,6 +2896,12 @@
       <c r="C31" s="17" t="s">
         <v>52</v>
       </c>
+      <c r="D31" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
@@ -2860,7 +2917,7 @@
         <v>182</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -3085,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E6:E7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3154,7 +3211,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>42072</v>
+        <v>42079</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -3195,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3701,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4149,13 +4206,50 @@
     <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B16" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B17" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="2:2" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B19" s="31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="B20" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B22" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+      <c r="B23" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4165,41 +4259,199 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="35" t="s">
         <v>17</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="29"/>
+      <c r="N1" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4564,7 +4816,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code_Modeling\Python\SSW_555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F19390C-D01D-A94F-817B-CDF70F30ED5D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -867,12 +866,29 @@
   </si>
   <si>
     <t>Leaving enough time to integrate so we are not rushing to do so last minute, that way we can use the group collective to solve any problems we may have</t>
+  </si>
+  <si>
+    <t>sort_siblings
+order_siblings_by_age</t>
+  </si>
+  <si>
+    <t>18
+47</t>
+  </si>
+  <si>
+    <t>test_order_siblings_by_age</t>
+  </si>
+  <si>
+    <t>list_multiple_births</t>
+  </si>
+  <si>
+    <t>test_list_multiple_births</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1016,7 +1032,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1114,6 +1130,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -1224,7 +1243,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1295,7 +1314,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2281,22 +2300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2330,7 +2349,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2347,7 +2366,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2364,7 +2383,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2381,7 +2400,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2390,16 +2409,16 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2407,24 +2426,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2455,10 +2474,10 @@
         <v>195</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2472,10 +2491,10 @@
         <v>195</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2489,10 +2508,10 @@
         <v>183</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2506,10 +2525,10 @@
         <v>183</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2523,10 +2542,10 @@
         <v>187</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2540,10 +2559,10 @@
         <v>187</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2557,10 +2576,10 @@
         <v>183</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2574,10 +2593,10 @@
         <v>183</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2591,10 +2610,10 @@
         <v>187</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2608,10 +2627,10 @@
         <v>182</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2625,10 +2644,10 @@
         <v>182</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2642,10 +2661,10 @@
         <v>187</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2659,10 +2678,10 @@
         <v>182</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2679,7 +2698,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2696,7 +2715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2730,7 +2749,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2747,7 +2766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2758,7 +2777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2769,7 +2788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2780,7 +2799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2791,7 +2810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2802,7 +2821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2813,7 +2832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2824,7 +2843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2838,10 +2857,10 @@
         <v>195</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2852,7 +2871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2869,7 +2888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2886,7 +2905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2900,10 +2919,10 @@
         <v>195</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2920,7 +2939,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2945,54 +2964,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3015,7 +3034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3031,7 +3050,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3056,7 +3075,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3081,7 +3100,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3106,7 +3125,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3139,24 +3158,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +3195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3187,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3209,7 +3228,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3230,12 +3249,12 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3249,35 +3268,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="16"/>
+    <col min="13" max="13" width="1.81640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3324,7 +3343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3371,7 +3390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3418,7 +3437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3465,7 +3484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3512,7 +3531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3559,7 +3578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3606,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3653,7 +3672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3700,7 +3719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3708,43 +3727,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="61.2" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3757,28 +3776,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.81640625" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="33"/>
-    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.81640625" style="33"/>
+    <col min="10" max="10" width="13.81640625" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="12" width="15.81640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.1796875" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.81640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3873,7 +3892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3920,7 +3939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3967,7 +3986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4061,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4108,7 +4127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4155,7 +4174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4202,50 +4221,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:2" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4258,19 +4277,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="33"/>
+    <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.81640625" style="33"/>
+    <col min="11" max="11" width="14.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.81640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -4318,140 +4342,200 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="33">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="33">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="33">
         <v>40</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="33">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="33">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="G6" s="33">
+        <v>65</v>
+      </c>
+      <c r="H6" s="33">
+        <v>3</v>
+      </c>
+      <c r="I6" s="40">
+        <v>42080</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="33">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="33">
         <v>30</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="33">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="33">
         <v>1</v>
+      </c>
+      <c r="G9" s="33">
+        <v>53</v>
+      </c>
+      <c r="H9" s="33">
+        <v>1</v>
+      </c>
+      <c r="I9" s="40">
+        <v>42080</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" s="33">
+        <v>53</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="33">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4461,16 +4545,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4506,20 +4590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4530,7 +4614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4541,7 +4625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4552,7 +4636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4563,7 +4647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4574,7 +4658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4585,7 +4669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4596,7 +4680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4607,7 +4691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4618,7 +4702,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4629,7 +4713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4640,7 +4724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4651,7 +4735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4662,7 +4746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4673,7 +4757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4684,7 +4768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4695,7 +4779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4706,7 +4790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4717,7 +4801,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4728,7 +4812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4739,7 +4823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4750,7 +4834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4761,7 +4845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4772,7 +4856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4783,7 +4867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4794,7 +4878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4805,7 +4889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4816,7 +4900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4827,7 +4911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4838,7 +4922,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4849,7 +4933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4860,7 +4944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4871,7 +4955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4882,7 +4966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4893,7 +4977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4904,7 +4988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4915,7 +4999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -4926,7 +5010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -4937,7 +5021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -4948,7 +5032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -4959,7 +5043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -4970,7 +5054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -4981,7 +5065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code_Modeling\Python\SSW_555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F21563-9A60-044B-90AA-939AAE3435FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,16 +23,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="273">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -883,12 +878,24 @@
   </si>
   <si>
     <t>test_list_multiple_births</t>
+  </si>
+  <si>
+    <t>LivingMaritalStatus.py</t>
+  </si>
+  <si>
+    <t>list_living_married</t>
+  </si>
+  <si>
+    <t>TestLivingMaritalStatus.py</t>
+  </si>
+  <si>
+    <t>test_living_marital_status_no_div_no_death, test_living_marital_status_no_div_death, test_living_marital_status_div_no_death, test_living_marital_status_div_death</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1243,7 +1250,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1314,7 +1321,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2300,22 +2307,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2366,7 +2373,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2383,7 +2390,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2400,7 +2407,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2414,11 +2421,11 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2426,24 +2433,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="16"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2460,7 +2467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2477,7 +2484,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2494,7 +2501,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2511,7 +2518,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2545,7 +2552,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2562,7 +2569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2579,7 +2586,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2596,7 +2603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2630,7 +2637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2647,7 +2654,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2664,7 +2671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2681,7 +2688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2698,7 +2705,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2749,7 +2756,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2766,7 +2773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2799,7 +2806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2810,7 +2817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2832,7 +2839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2843,7 +2850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2888,7 +2895,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2905,7 +2912,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2922,7 +2929,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2964,54 +2971,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3050,7 +3057,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3075,7 +3082,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3158,24 +3165,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3195,7 +3202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3206,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3228,7 +3235,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3249,12 +3256,12 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3268,35 +3275,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.81640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.81640625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.81640625" style="16"/>
+    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3343,7 +3350,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3390,7 +3397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3531,7 +3538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3625,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3719,7 +3726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3727,43 +3734,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="61.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3776,28 +3783,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.81640625" style="33"/>
-    <col min="10" max="10" width="13.81640625" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="33"/>
+    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.81640625" style="33"/>
+    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="88.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3939,7 +3946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3986,7 +3993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4127,7 +4134,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4174,7 +4181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4221,50 +4228,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.15">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4277,24 +4284,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.81640625" style="33"/>
-    <col min="11" max="11" width="14.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.81640625" style="33"/>
+    <col min="3" max="10" width="10.83203125" style="33"/>
+    <col min="11" max="11" width="14.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4349,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>123</v>
       </c>
@@ -4359,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
@@ -4376,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
         <v>126</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="208" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
         <v>138</v>
       </c>
@@ -4473,8 +4480,35 @@
       <c r="F7" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G7" s="33">
+        <v>48</v>
+      </c>
+      <c r="H7" s="33">
+        <v>2</v>
+      </c>
+      <c r="I7" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" s="33">
+        <v>48</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="208" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>139</v>
       </c>
@@ -4490,8 +4524,35 @@
       <c r="F8" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+      <c r="G8" s="33">
+        <v>48</v>
+      </c>
+      <c r="H8" s="33">
+        <v>2</v>
+      </c>
+      <c r="I8" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L8" s="33">
+        <v>48</v>
+      </c>
+      <c r="N8" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="P8" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
@@ -4545,16 +4606,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4590,20 +4651,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4614,7 +4675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4625,7 +4686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4636,7 +4697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4647,7 +4708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4658,7 +4719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4669,7 +4730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4680,7 +4741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4691,7 +4752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4702,7 +4763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4713,7 +4774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4724,7 +4785,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4735,7 +4796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4746,7 +4807,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4757,7 +4818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4768,7 +4829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4779,7 +4840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4790,7 +4851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4801,7 +4862,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4812,7 +4873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4823,7 +4884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4834,7 +4895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4845,7 +4906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4856,7 +4917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4867,7 +4928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4878,7 +4939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4889,7 +4950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4900,7 +4961,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4911,7 +4972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4922,7 +4983,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4933,7 +4994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4944,7 +5005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4955,7 +5016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4966,7 +5027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4977,7 +5038,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4988,7 +5049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4999,7 +5060,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5010,7 +5071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5021,7 +5082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5032,7 +5093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5043,7 +5104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5054,7 +5115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5065,7 +5126,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code_Modeling\Python\SSW_555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BB062-2A9C-46F0-A103-367BD2946592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="277">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -883,12 +883,36 @@
   </si>
   <si>
     <t>test_list_multiple_births</t>
+  </si>
+  <si>
+    <t>male_last_names.py</t>
+  </si>
+  <si>
+    <t>no_marriage_to_children.py</t>
+  </si>
+  <si>
+    <t>check_all_male_last_names</t>
+  </si>
+  <si>
+    <t>no_marriage_to_children</t>
+  </si>
+  <si>
+    <t>TestMaleLastName.py</t>
+  </si>
+  <si>
+    <t>TestMarriageToChildren.py</t>
+  </si>
+  <si>
+    <t>TestMaleNames</t>
+  </si>
+  <si>
+    <t>TestSameFamilyChildrenMarriage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2300,19 +2324,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2414,11 +2438,11 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2426,21 +2450,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="16"/>
+    <col min="1" max="1" width="6.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2460,7 +2484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2477,7 +2501,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2494,7 +2518,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2511,7 +2535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2528,7 +2552,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2545,7 +2569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2562,7 +2586,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2579,7 +2603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2596,7 +2620,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2613,7 +2637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2630,7 +2654,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2647,7 +2671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2664,7 +2688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2681,7 +2705,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2698,7 +2722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2715,7 +2739,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2732,7 +2756,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2749,7 +2773,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2766,7 +2790,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2777,7 +2801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2799,7 +2823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2810,7 +2834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2821,7 +2845,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2832,7 +2856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2843,7 +2867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2860,7 +2884,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2871,7 +2895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2888,7 +2912,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2905,7 +2929,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2922,7 +2946,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2939,7 +2963,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2964,21 +2988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,21 +3182,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3268,32 +3292,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.81640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.81640625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.81640625" style="16"/>
+    <col min="13" max="13" width="1.875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3343,7 +3367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3390,7 +3414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3437,7 +3461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3484,7 +3508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3531,7 +3555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3578,7 +3602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3625,7 +3649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3672,7 +3696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3740,7 +3764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
@@ -3753,7 +3777,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="61.2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
@@ -3776,25 +3800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="33"/>
+    <col min="1" max="1" width="10.875" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.81640625" style="33"/>
-    <col min="10" max="10" width="13.81640625" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.875" style="33"/>
+    <col min="10" max="10" width="13.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.36328125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.81640625" style="33"/>
+    <col min="12" max="12" width="15.875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3845,7 +3869,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3892,7 +3916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="88.2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3939,7 +3963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3986,7 +4010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4033,7 +4057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4080,7 +4104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4127,7 +4151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4174,7 +4198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4233,12 +4257,12 @@
     <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
@@ -4251,7 +4275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
@@ -4264,7 +4288,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4277,21 +4301,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="33"/>
+    <col min="1" max="1" width="10.875" style="33"/>
     <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.81640625" style="33"/>
-    <col min="11" max="11" width="14.90625" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.81640625" style="33"/>
+    <col min="3" max="10" width="10.875" style="33"/>
+    <col min="11" max="11" width="14.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4359,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
@@ -4369,14 +4393,44 @@
       <c r="C3" s="33" t="s">
         <v>187</v>
       </c>
+      <c r="D3" s="33" t="s">
+        <v>228</v>
+      </c>
       <c r="E3" s="33">
         <v>40</v>
       </c>
       <c r="F3" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G3" s="33">
+        <v>60</v>
+      </c>
+      <c r="H3" s="33">
+        <v>4</v>
+      </c>
+      <c r="I3" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" s="33">
+        <v>34</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="P3" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
@@ -4386,11 +4440,41 @@
       <c r="C4" s="33" t="s">
         <v>187</v>
       </c>
+      <c r="D4" s="33" t="s">
+        <v>228</v>
+      </c>
       <c r="E4" s="33">
         <v>40</v>
       </c>
       <c r="F4" s="33">
         <v>2</v>
+      </c>
+      <c r="G4" s="33">
+        <v>70</v>
+      </c>
+      <c r="H4" s="33">
+        <v>4</v>
+      </c>
+      <c r="I4" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L4" s="33">
+        <v>25</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="33">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4410,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
@@ -4491,7 +4575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
@@ -4545,16 +4629,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4590,17 +4674,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4614,7 +4698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4625,7 +4709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4636,7 +4720,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4647,7 +4731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4658,7 +4742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4669,7 +4753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4680,7 +4764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4691,7 +4775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4702,7 +4786,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4713,7 +4797,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4724,7 +4808,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4735,7 +4819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4746,7 +4830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4757,7 +4841,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4768,7 +4852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4779,7 +4863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4790,7 +4874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4801,7 +4885,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4812,7 +4896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4823,7 +4907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4834,7 +4918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4845,7 +4929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4856,7 +4940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4867,7 +4951,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4878,7 +4962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4889,7 +4973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4900,7 +4984,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4911,7 +4995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4922,7 +5006,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4933,7 +5017,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -4944,7 +5028,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4955,7 +5039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4966,7 +5050,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -4977,7 +5061,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -4988,7 +5072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -4999,7 +5083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5010,7 +5094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5021,7 +5105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5032,7 +5116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5043,7 +5127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5054,7 +5138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5065,7 +5149,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F21563-9A60-044B-90AA-939AAE3435FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F346CF-EDB5-C843-AAC2-A334027392BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,16 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -890,6 +896,30 @@
   </si>
   <si>
     <t>test_living_marital_status_no_div_no_death, test_living_marital_status_no_div_death, test_living_marital_status_div_no_death, test_living_marital_status_div_death</t>
+  </si>
+  <si>
+    <t>siblings_not_too_many.py</t>
+  </si>
+  <si>
+    <t>siblings_not_too_many</t>
+  </si>
+  <si>
+    <t>test_siblings_not_too_many.py</t>
+  </si>
+  <si>
+    <t>test_valid_siblings_num, test_siblings_more_than_15</t>
+  </si>
+  <si>
+    <t>siblings_not_marry.py</t>
+  </si>
+  <si>
+    <t>siblings_not_marry</t>
+  </si>
+  <si>
+    <t>test_siblings_not_marry.py</t>
+  </si>
+  <si>
+    <t>test_valid, test_invalid</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2446,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2467,7 +2497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2484,7 +2514,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2501,7 +2531,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2518,7 +2548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2535,7 +2565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2552,7 +2582,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2569,7 +2599,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2586,7 +2616,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2603,7 +2633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2620,7 +2650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2637,7 +2667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2654,7 +2684,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2671,7 +2701,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2688,7 +2718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2705,7 +2735,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2722,7 +2752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2739,7 +2769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2756,7 +2786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2773,7 +2803,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2784,7 +2814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2795,7 +2825,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2806,7 +2836,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2817,7 +2847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2828,7 +2858,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2839,7 +2869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2850,7 +2880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2867,7 +2897,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2878,7 +2908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2895,7 +2925,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2912,7 +2942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2929,7 +2959,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -3303,7 +3333,7 @@
     <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3350,7 +3380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3397,7 +3427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3444,7 +3474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3491,7 +3521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3538,7 +3568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3585,7 +3615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3632,7 +3662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3679,7 +3709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3734,7 +3764,7 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
@@ -3742,12 +3772,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
@@ -3755,17 +3785,17 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
@@ -3852,7 +3882,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3899,7 +3929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3946,7 +3976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -3993,7 +4023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4040,7 +4070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4087,7 +4117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4134,7 +4164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4181,7 +4211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4232,7 +4262,7 @@
     <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
         <v>200</v>
       </c>
@@ -4240,12 +4270,12 @@
     <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
@@ -4253,12 +4283,12 @@
     <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:2" s="37" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
@@ -4266,12 +4296,12 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4287,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4349,7 +4379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>123</v>
       </c>
@@ -4365,8 +4395,35 @@
       <c r="F2" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G2" s="33">
+        <v>12</v>
+      </c>
+      <c r="H2" s="33">
+        <v>1</v>
+      </c>
+      <c r="I2" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" s="33">
+        <v>15</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="P2" s="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
@@ -4383,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
@@ -4400,7 +4457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
         <v>126</v>
       </c>
@@ -4416,8 +4473,35 @@
       <c r="F5" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+      <c r="G5" s="33">
+        <v>18</v>
+      </c>
+      <c r="H5" s="33">
+        <v>2</v>
+      </c>
+      <c r="I5" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="L5" s="33">
+        <v>18</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" s="33">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
@@ -4464,7 +4548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="208" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
         <v>138</v>
       </c>
@@ -4508,7 +4592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="208" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>139</v>
       </c>
@@ -4552,7 +4636,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
@@ -4615,7 +4699,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4748,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4675,7 +4759,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4686,7 +4770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4697,7 +4781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4708,7 +4792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4719,7 +4803,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4730,7 +4814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4741,7 +4825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4752,7 +4836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4763,7 +4847,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4774,7 +4858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4785,7 +4869,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4796,7 +4880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4807,7 +4891,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4818,7 +4902,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4829,7 +4913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4840,7 +4924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4851,7 +4935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4862,7 +4946,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4873,7 +4957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4884,7 +4968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4895,7 +4979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4906,7 +4990,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4917,7 +5001,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4928,7 +5012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4939,7 +5023,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4950,7 +5034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4961,7 +5045,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4972,7 +5056,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -4983,7 +5067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4994,7 +5078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5005,7 +5089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5016,7 +5100,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5027,7 +5111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5038,7 +5122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5049,7 +5133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5060,7 +5144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5071,7 +5155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5082,7 +5166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5093,7 +5177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5104,7 +5188,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5115,7 +5199,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5126,7 +5210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BB062-2A9C-46F0-A103-367BD2946592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4414DBD7-4FA9-4408-801B-990568FA0B1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -4304,7 +4304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\SSW555-DriverlessCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code_Modeling\Python\SSW_555\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BB062-2A9C-46F0-A103-367BD2946592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -31,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="269">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -883,36 +883,12 @@
   </si>
   <si>
     <t>test_list_multiple_births</t>
-  </si>
-  <si>
-    <t>male_last_names.py</t>
-  </si>
-  <si>
-    <t>no_marriage_to_children.py</t>
-  </si>
-  <si>
-    <t>check_all_male_last_names</t>
-  </si>
-  <si>
-    <t>no_marriage_to_children</t>
-  </si>
-  <si>
-    <t>TestMaleLastName.py</t>
-  </si>
-  <si>
-    <t>TestMarriageToChildren.py</t>
-  </si>
-  <si>
-    <t>TestMaleNames</t>
-  </si>
-  <si>
-    <t>TestSameFamilyChildrenMarriage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2324,19 +2300,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2438,11 +2414,11 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2450,21 +2426,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="16"/>
+    <col min="1" max="1" width="6.81640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -2484,7 +2460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2501,7 +2477,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2518,7 +2494,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2535,7 +2511,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2552,7 +2528,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2569,7 +2545,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2586,7 +2562,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2603,7 +2579,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2620,7 +2596,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2637,7 +2613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2654,7 +2630,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2671,7 +2647,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2688,7 +2664,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2705,7 +2681,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2722,7 +2698,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2739,7 +2715,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2756,7 +2732,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2773,7 +2749,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2790,7 +2766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2801,7 +2777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2812,7 +2788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2823,7 +2799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2834,7 +2810,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2845,7 +2821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2856,7 +2832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2867,7 +2843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2884,7 +2860,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2895,7 +2871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2912,7 +2888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2929,7 +2905,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2946,7 +2922,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2963,7 +2939,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -2988,21 +2964,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -3182,21 +3158,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3292,32 +3268,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.875" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.875" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="16"/>
+    <col min="13" max="13" width="1.81640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.81640625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.81640625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1796875" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.81640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3367,7 +3343,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3414,7 +3390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3461,7 +3437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3508,7 +3484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3555,7 +3531,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3602,7 +3578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3649,7 +3625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3696,7 +3672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3764,7 +3740,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
@@ -3777,7 +3753,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="61.2" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
@@ -3800,25 +3776,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="33"/>
+    <col min="1" max="1" width="10.81640625" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="33"/>
-    <col min="10" max="10" width="13.875" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.81640625" style="33"/>
+    <col min="10" max="10" width="13.81640625" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="33"/>
+    <col min="12" max="12" width="15.81640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.1796875" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.81640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3869,7 +3845,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3916,7 +3892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="88.2" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3963,7 +3939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -4010,7 +3986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4057,7 +4033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4104,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4151,7 +4127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4198,7 +4174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4257,12 +4233,12 @@
     <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
@@ -4275,7 +4251,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
@@ -4288,7 +4264,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4301,21 +4277,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="33"/>
+    <col min="1" max="1" width="10.81640625" style="33"/>
     <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.875" style="33"/>
-    <col min="11" max="11" width="14.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="33"/>
+    <col min="3" max="10" width="10.81640625" style="33"/>
+    <col min="11" max="11" width="14.90625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.81640625" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4383,7 +4359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
@@ -4393,44 +4369,14 @@
       <c r="C3" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>228</v>
-      </c>
       <c r="E3" s="33">
         <v>40</v>
       </c>
       <c r="F3" s="33">
         <v>2</v>
       </c>
-      <c r="G3" s="33">
-        <v>60</v>
-      </c>
-      <c r="H3" s="33">
-        <v>4</v>
-      </c>
-      <c r="I3" s="40">
-        <v>42092</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="L3" s="33">
-        <v>34</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="P3" s="33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
@@ -4440,41 +4386,11 @@
       <c r="C4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>228</v>
-      </c>
       <c r="E4" s="33">
         <v>40</v>
       </c>
       <c r="F4" s="33">
         <v>2</v>
-      </c>
-      <c r="G4" s="33">
-        <v>70</v>
-      </c>
-      <c r="H4" s="33">
-        <v>4</v>
-      </c>
-      <c r="I4" s="40">
-        <v>42092</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="L4" s="33">
-        <v>25</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="P4" s="33">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -4494,7 +4410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
@@ -4575,7 +4491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
@@ -4629,16 +4545,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4674,17 +4590,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4698,7 +4614,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4709,7 +4625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4720,7 +4636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4731,7 +4647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4742,7 +4658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4753,7 +4669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4764,7 +4680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4775,7 +4691,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4786,7 +4702,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4797,7 +4713,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4808,7 +4724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4819,7 +4735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4830,7 +4746,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4841,7 +4757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4852,7 +4768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4863,7 +4779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4874,7 +4790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4885,7 +4801,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4896,7 +4812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4907,7 +4823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4918,7 +4834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4929,7 +4845,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -4940,7 +4856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -4951,7 +4867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -4962,7 +4878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4973,7 +4889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -4984,7 +4900,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -4995,7 +4911,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5006,7 +4922,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5017,7 +4933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5028,7 +4944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5039,7 +4955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5050,7 +4966,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5061,7 +4977,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5072,7 +4988,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5083,7 +4999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5094,7 +5010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5105,7 +5021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5116,7 +5032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5127,7 +5043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5138,7 +5054,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5149,7 +5065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\SSW555-DriverlessCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F346CF-EDB5-C843-AAC2-A334027392BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{542E80AE-453D-4D1B-BBB2-F51105A6934F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8295" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="287">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -920,6 +919,24 @@
   </si>
   <si>
     <t>test_valid, test_invalid</t>
+  </si>
+  <si>
+    <t>male_last_names.py</t>
+  </si>
+  <si>
+    <t>no_marriage_to_children.py</t>
+  </si>
+  <si>
+    <t>TestSameFamilyChildrenMarriage.py</t>
+  </si>
+  <si>
+    <t>TestMaleNames.py</t>
+  </si>
+  <si>
+    <t>TestMaleNames</t>
+  </si>
+  <si>
+    <t>TestMarriageToChildren</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1297,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1351,7 +1368,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2344,15 +2361,15 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2369,7 +2386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2386,7 +2403,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2403,7 +2420,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2420,7 +2437,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2437,7 +2454,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2446,7 +2463,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2470,17 +2487,17 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="6.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2497,7 +2514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2514,7 +2531,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2531,7 +2548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2548,7 +2565,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2565,7 +2582,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2582,7 +2599,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2599,7 +2616,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2616,7 +2633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2633,7 +2650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2650,7 +2667,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2667,7 +2684,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2684,7 +2701,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2701,7 +2718,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2718,7 +2735,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2735,7 +2752,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2752,7 +2769,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2769,7 +2786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2786,7 +2803,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2803,7 +2820,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2814,7 +2831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2825,7 +2842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2836,7 +2853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2847,7 +2864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2858,7 +2875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2869,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2897,7 +2914,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2925,7 +2942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2942,7 +2959,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2959,7 +2976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -3008,47 +3025,47 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3071,7 +3088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3087,7 +3104,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3112,7 +3129,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3137,7 +3154,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3162,7 +3179,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3202,17 +3219,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3243,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3265,7 +3282,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3286,12 +3303,12 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3312,28 +3329,28 @@
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="16"/>
+    <col min="13" max="13" width="1.875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3380,7 +3397,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3427,7 +3444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3615,7 +3632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3662,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3709,7 +3726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3756,7 +3773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3764,43 +3781,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3820,21 +3837,21 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.875" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="33"/>
-    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.875" style="33"/>
+    <col min="10" max="10" width="13.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="33"/>
+    <col min="12" max="12" width="15.875" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3882,7 +3899,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
@@ -3929,7 +3946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
@@ -3976,7 +3993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -4023,7 +4040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4070,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4117,7 +4134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4164,7 +4181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4211,7 +4228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4258,50 +4275,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:2" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4318,20 +4335,20 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.875" style="33"/>
     <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="33"/>
-    <col min="11" max="11" width="14.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="33"/>
+    <col min="3" max="10" width="10.875" style="33"/>
+    <col min="11" max="11" width="14.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -4379,7 +4396,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>123</v>
       </c>
@@ -4423,7 +4440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
@@ -4439,8 +4456,35 @@
       <c r="F3" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="G3" s="33">
+        <v>30</v>
+      </c>
+      <c r="H3" s="33">
+        <v>3</v>
+      </c>
+      <c r="I3" s="40">
+        <v>42092</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L3" s="33">
+        <v>33</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
@@ -4456,8 +4500,35 @@
       <c r="F4" s="33">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+      <c r="G4" s="33">
+        <v>35</v>
+      </c>
+      <c r="H4" s="33">
+        <v>3</v>
+      </c>
+      <c r="I4" s="40">
+        <v>42093</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4" s="33">
+        <v>24</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="P4" s="33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>126</v>
       </c>
@@ -4501,7 +4572,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
@@ -4548,7 +4619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>138</v>
       </c>
@@ -4592,7 +4663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>139</v>
       </c>
@@ -4636,7 +4707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
@@ -4697,9 +4768,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4742,13 +4813,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4759,7 +4830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4770,7 +4841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4781,7 +4852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4792,7 +4863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4803,7 +4874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4814,7 +4885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4825,7 +4896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4836,7 +4907,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4847,7 +4918,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4858,7 +4929,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4869,7 +4940,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4880,7 +4951,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4891,7 +4962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4902,7 +4973,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4913,7 +4984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4924,7 +4995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -4935,7 +5006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -4946,7 +5017,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -4957,7 +5028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4968,7 +5039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -4979,7 +5050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4990,7 +5061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5001,7 +5072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5012,7 +5083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5023,7 +5094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5034,7 +5105,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5045,7 +5116,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5056,7 +5127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5067,7 +5138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5078,7 +5149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5089,7 +5160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5100,7 +5171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5111,7 +5182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5122,7 +5193,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5133,7 +5204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5144,7 +5215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5155,7 +5226,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5166,7 +5237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5177,7 +5248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5188,7 +5259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5199,7 +5270,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5210,7 +5281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\SSW555-DriverlessCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542E80AE-453D-4D1B-BBB2-F51105A6934F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D92C9-520D-9444-B1FD-2363034EA705}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8295" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -872,71 +873,71 @@
 order_siblings_by_age</t>
   </si>
   <si>
+    <t>test_order_siblings_by_age</t>
+  </si>
+  <si>
+    <t>list_multiple_births</t>
+  </si>
+  <si>
+    <t>test_list_multiple_births</t>
+  </si>
+  <si>
+    <t>LivingMaritalStatus.py</t>
+  </si>
+  <si>
+    <t>list_living_married</t>
+  </si>
+  <si>
+    <t>TestLivingMaritalStatus.py</t>
+  </si>
+  <si>
+    <t>test_living_marital_status_no_div_no_death, test_living_marital_status_no_div_death, test_living_marital_status_div_no_death, test_living_marital_status_div_death</t>
+  </si>
+  <si>
+    <t>siblings_not_too_many.py</t>
+  </si>
+  <si>
+    <t>siblings_not_too_many</t>
+  </si>
+  <si>
+    <t>test_siblings_not_too_many.py</t>
+  </si>
+  <si>
+    <t>test_valid_siblings_num, test_siblings_more_than_15</t>
+  </si>
+  <si>
+    <t>siblings_not_marry.py</t>
+  </si>
+  <si>
+    <t>siblings_not_marry</t>
+  </si>
+  <si>
+    <t>test_siblings_not_marry.py</t>
+  </si>
+  <si>
+    <t>test_valid, test_invalid</t>
+  </si>
+  <si>
+    <t>male_last_names.py</t>
+  </si>
+  <si>
+    <t>no_marriage_to_children.py</t>
+  </si>
+  <si>
+    <t>TestSameFamilyChildrenMarriage.py</t>
+  </si>
+  <si>
+    <t>TestMaleNames.py</t>
+  </si>
+  <si>
+    <t>TestMaleNames</t>
+  </si>
+  <si>
+    <t>TestMarriageToChildren</t>
+  </si>
+  <si>
     <t>18
-47</t>
-  </si>
-  <si>
-    <t>test_order_siblings_by_age</t>
-  </si>
-  <si>
-    <t>list_multiple_births</t>
-  </si>
-  <si>
-    <t>test_list_multiple_births</t>
-  </si>
-  <si>
-    <t>LivingMaritalStatus.py</t>
-  </si>
-  <si>
-    <t>list_living_married</t>
-  </si>
-  <si>
-    <t>TestLivingMaritalStatus.py</t>
-  </si>
-  <si>
-    <t>test_living_marital_status_no_div_no_death, test_living_marital_status_no_div_death, test_living_marital_status_div_no_death, test_living_marital_status_div_death</t>
-  </si>
-  <si>
-    <t>siblings_not_too_many.py</t>
-  </si>
-  <si>
-    <t>siblings_not_too_many</t>
-  </si>
-  <si>
-    <t>test_siblings_not_too_many.py</t>
-  </si>
-  <si>
-    <t>test_valid_siblings_num, test_siblings_more_than_15</t>
-  </si>
-  <si>
-    <t>siblings_not_marry.py</t>
-  </si>
-  <si>
-    <t>siblings_not_marry</t>
-  </si>
-  <si>
-    <t>test_siblings_not_marry.py</t>
-  </si>
-  <si>
-    <t>test_valid, test_invalid</t>
-  </si>
-  <si>
-    <t>male_last_names.py</t>
-  </si>
-  <si>
-    <t>no_marriage_to_children.py</t>
-  </si>
-  <si>
-    <t>TestSameFamilyChildrenMarriage.py</t>
-  </si>
-  <si>
-    <t>TestMaleNames.py</t>
-  </si>
-  <si>
-    <t>TestMaleNames</t>
-  </si>
-  <si>
-    <t>TestMarriageToChildren</t>
+43</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1298,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1368,7 +1369,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1468,6 +1469,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,19 +2361,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>183</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>187</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>195</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2463,7 +2467,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2483,21 +2487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="16"/>
+    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>116</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>117</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>118</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>119</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>120</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>121</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>122</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>123</v>
       </c>
@@ -2766,10 +2770,10 @@
         <v>183</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>124</v>
       </c>
@@ -2783,10 +2787,10 @@
         <v>187</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>125</v>
       </c>
@@ -2800,10 +2804,10 @@
         <v>187</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>126</v>
       </c>
@@ -2817,10 +2821,10 @@
         <v>183</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>127</v>
       </c>
@@ -2831,7 +2835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>128</v>
       </c>
@@ -2842,7 +2846,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>130</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>131</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>132</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>133</v>
       </c>
@@ -2886,7 +2890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>135</v>
       </c>
@@ -2897,7 +2901,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>136</v>
       </c>
@@ -2914,7 +2918,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>137</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>138</v>
       </c>
@@ -2939,10 +2943,10 @@
         <v>182</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>139</v>
       </c>
@@ -2956,10 +2960,10 @@
         <v>182</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>140</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>149</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>150</v>
       </c>
@@ -3021,51 +3025,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3104,7 +3108,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3216,20 +3220,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3303,12 +3307,28 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>309</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <f>(D5-D4)/(E5)</f>
+        <v>-3.3529411764705883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3329,28 +3349,28 @@
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
     <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.875" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.875" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="16"/>
+    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3417,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>109</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>110</v>
       </c>
@@ -3491,7 +3511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>111</v>
       </c>
@@ -3538,7 +3558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>112</v>
       </c>
@@ -3585,7 +3605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>113</v>
       </c>
@@ -3632,7 +3652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>114</v>
       </c>
@@ -3679,7 +3699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>118</v>
       </c>
@@ -3726,7 +3746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>119</v>
       </c>
@@ -3773,7 +3793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="27"/>
@@ -3781,43 +3801,43 @@
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="32" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="20"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="32" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="s">
         <v>231</v>
       </c>
@@ -3834,24 +3854,24 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="33"/>
-    <col min="10" max="10" width="13.875" style="33" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="33"/>
+    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
     <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="33"/>
+    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
@@ -3899,11 +3919,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -3946,11 +3966,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="37" t="s">
@@ -3993,7 +4013,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="37" t="s">
         <v>117</v>
       </c>
@@ -4040,7 +4060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>120</v>
       </c>
@@ -4087,7 +4107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="37" t="s">
         <v>121</v>
       </c>
@@ -4134,7 +4154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>122</v>
       </c>
@@ -4181,7 +4201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="37" t="s">
         <v>149</v>
       </c>
@@ -4228,7 +4248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="37" t="s">
         <v>150</v>
       </c>
@@ -4275,50 +4295,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B17" s="32" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="20"/>
     </row>
-    <row r="19" spans="2:2" s="37" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="18"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="31" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
       <c r="B23" s="32" t="s">
         <v>261</v>
       </c>
@@ -4334,21 +4354,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="33"/>
     <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.875" style="33"/>
-    <col min="11" max="11" width="14.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="33"/>
+    <col min="3" max="10" width="10.83203125" style="33"/>
+    <col min="11" max="11" width="14.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
@@ -4396,7 +4416,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>123</v>
       </c>
@@ -4422,25 +4442,25 @@
         <v>42092</v>
       </c>
       <c r="J2" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="K2" s="33" t="s">
         <v>273</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>274</v>
       </c>
       <c r="L2" s="33">
         <v>15</v>
       </c>
       <c r="N2" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O2" s="33" t="s">
         <v>275</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>276</v>
       </c>
       <c r="P2" s="33">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="33" t="s">
         <v>124</v>
       </c>
@@ -4466,25 +4486,25 @@
         <v>42092</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L3" s="33">
         <v>33</v>
       </c>
       <c r="N3" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O3" s="33" t="s">
         <v>284</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>285</v>
       </c>
       <c r="P3" s="33">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
         <v>125</v>
       </c>
@@ -4510,25 +4530,25 @@
         <v>42093</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L4" s="33">
         <v>24</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P4" s="33">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
         <v>126</v>
       </c>
@@ -4554,25 +4574,25 @@
         <v>42092</v>
       </c>
       <c r="J5" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="33" t="s">
         <v>277</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>278</v>
       </c>
       <c r="L5" s="33">
         <v>18</v>
       </c>
       <c r="N5" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="P5" s="33">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>136</v>
       </c>
@@ -4607,19 +4627,19 @@
         <v>264</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="N6" s="33" t="s">
         <v>237</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P6" s="33">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A7" s="33" t="s">
         <v>138</v>
       </c>
@@ -4645,25 +4665,25 @@
         <v>42092</v>
       </c>
       <c r="J7" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="37" t="s">
         <v>269</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>270</v>
       </c>
       <c r="L7" s="33">
         <v>48</v>
       </c>
       <c r="N7" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>271</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>272</v>
       </c>
       <c r="P7" s="33">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A8" s="33" t="s">
         <v>139</v>
       </c>
@@ -4689,25 +4709,25 @@
         <v>42092</v>
       </c>
       <c r="J8" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="37" t="s">
         <v>269</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>270</v>
       </c>
       <c r="L8" s="33">
         <v>48</v>
       </c>
       <c r="N8" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O8" s="37" t="s">
         <v>271</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>272</v>
       </c>
       <c r="P8" s="33">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
@@ -4739,7 +4759,7 @@
         <v>235</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L9" s="33">
         <v>53</v>
@@ -4748,7 +4768,7 @@
         <v>237</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P9" s="33">
         <v>41</v>
@@ -4768,9 +4788,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4813,13 +4833,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -4830,7 +4850,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -4841,7 +4861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -4852,7 +4872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -4863,7 +4883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -4874,7 +4894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -4885,7 +4905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -4896,7 +4916,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -4907,7 +4927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -4918,7 +4938,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -4929,7 +4949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -4940,7 +4960,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -4951,7 +4971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -4962,7 +4982,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -4973,7 +4993,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4984,7 +5004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -4995,7 +5015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5006,7 +5026,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5017,7 +5037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5028,7 +5048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5039,7 +5059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5050,7 +5070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5061,7 +5081,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5072,7 +5092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5083,7 +5103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5094,7 +5114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5105,7 +5125,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5116,7 +5136,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5127,7 +5147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5138,7 +5158,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5149,7 +5169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5160,7 +5180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5171,7 +5191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5182,7 +5202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5193,7 +5213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5204,7 +5224,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5215,7 +5235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5226,7 +5246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5237,7 +5257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5248,7 +5268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5259,7 +5279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5270,7 +5290,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5281,7 +5301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D92C9-520D-9444-B1FD-2363034EA705}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC56346-0AAE-2146-8F33-AE60F349788C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="13940" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="293">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -938,6 +938,24 @@
   <si>
     <t>18
 43</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Completed Previously</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Starting implementation earlier in the sprint so that there are fewer integration issues</t>
+  </si>
+  <si>
+    <t>Communicating when user stories have dependencies, US15 and US28 could have been implemented together and made more efficient</t>
+  </si>
+  <si>
+    <t>Stories that look simple to implement are actually turning out to be complex</t>
   </si>
 </sst>
 </file>
@@ -948,7 +966,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -991,6 +1009,24 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1087,7 +1123,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1100,9 +1136,6 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1187,6 +1220,18 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2361,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2390,20 +2435,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2417,44 +2462,44 @@
       <c r="C3" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2462,7 +2507,7 @@
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2487,530 +2532,578 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="6.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+      <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>43</v>
       </c>
+      <c r="D20" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="D21" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>85</v>
       </c>
+      <c r="D22" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>45</v>
       </c>
+      <c r="D23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>46</v>
       </c>
+      <c r="D24" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>47</v>
       </c>
+      <c r="D25" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="D26" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="D28" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+      <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3096,36 +3189,36 @@
       <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
       <c r="G16" s="7">
@@ -3137,20 +3230,20 @@
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
       <c r="G17" s="7">
@@ -3162,20 +3255,20 @@
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
       <c r="G18" s="7">
@@ -3187,20 +3280,20 @@
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
       <c r="G19" s="7">
@@ -3220,7 +3313,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3318,14 +3411,14 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>309</v>
+        <v>675</v>
       </c>
       <c r="E5">
         <v>17</v>
       </c>
       <c r="F5" s="7">
         <f>(D5-D4)/(E5)</f>
-        <v>-3.3529411764705883</v>
+        <v>18.176470588235293</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -3345,500 +3438,500 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="29" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="13" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.83203125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>15</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>17</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>0.5</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>42046</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <v>17</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="26">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>15</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>12</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.5</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>42046</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>12</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="23">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>15</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>15</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.5</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>42047</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>15</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="23">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>15</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>1</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <v>14</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>0.5</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>42047</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>14</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>15</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>19</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>0.6</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>42052</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>19</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>15</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>19</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>0.6</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>42052</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <v>19</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>15</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>22</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>0.5</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>42055</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <v>22</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="23">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>15</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>72</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>0.6</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>42056</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>72</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="B14" s="30"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3853,493 +3946,493 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
-    <col min="2" max="2" width="22" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="33"/>
-    <col min="10" max="10" width="13.83203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="16" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="33" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="33" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="2" max="2" width="22" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="32"/>
+    <col min="10" max="10" width="13.83203125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="16" style="32" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="25" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="37" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>25</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="36">
         <v>1</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="35">
         <v>35</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="35">
         <v>2</v>
       </c>
-      <c r="I2" s="39">
+      <c r="I2" s="38">
         <v>42074</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="L2" s="37">
+      <c r="L2" s="36">
         <v>21</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="36">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="37" customFormat="1" ht="98" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>30</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <v>1</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="35">
         <v>48</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="35">
         <v>3</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>42075</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="36">
         <v>35</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>25</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>40</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="35">
         <v>2</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="38">
         <v>42078</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="36">
         <v>31</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="36">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>25</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>1</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>30</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>1</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>42078</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="36">
         <v>26</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="36">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>25</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>1</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>30</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>2</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>42075</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="36">
         <v>13</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="37" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>30</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>1</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>32</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>3</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>42073</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="36">
         <v>32</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="36">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>25</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>1</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>56</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>1</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>42076</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="36">
         <v>11</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>25</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>1</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>7</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>1</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="37">
         <v>42065</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <v>7</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="36">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="B14" s="20" t="s">
+    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="30"/>
-    </row>
-    <row r="16" spans="1:16" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B16" s="31" t="s">
+    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="29"/>
+    </row>
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="37" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="B17" s="32" t="s">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="37" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-    </row>
-    <row r="19" spans="2:2" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="B19" s="31" t="s">
+    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="37" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4352,426 +4445,488 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="33"/>
-    <col min="2" max="2" width="23" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="33"/>
-    <col min="11" max="11" width="14.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="33"/>
+    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="2" max="2" width="23" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.83203125" style="32"/>
+    <col min="11" max="11" width="14.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="25" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="33">
+      <c r="D2" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="32">
         <v>45</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="32">
         <v>2</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="32">
         <v>12</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="32">
         <v>1</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>42092</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="32">
         <v>15</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="32">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="33">
+      <c r="D3" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="32">
         <v>40</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>2</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="32">
         <v>30</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>3</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>42092</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="32">
         <v>33</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="32">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="33">
+      <c r="D4" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="32">
         <v>40</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>2</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="32">
         <v>35</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <v>3</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>42093</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <v>24</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="32">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="33">
+      <c r="D5" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="32">
         <v>45</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <v>2</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="32">
         <v>18</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="32">
         <v>2</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>42092</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="32">
         <v>18</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="32">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>45</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <v>3</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="32">
         <v>65</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="32">
         <v>3</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>42080</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="32">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="33">
+      <c r="D7" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="32">
         <v>30</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>2</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="32">
         <v>48</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="32">
         <v>2</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>42092</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="32">
         <v>48</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="32">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="33">
+      <c r="D8" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="32">
         <v>30</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <v>2</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="32">
         <v>48</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="32">
         <v>2</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>42092</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>48</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="32">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>15</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <v>53</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <v>1</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <v>42080</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <v>53</v>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="33" t="s">
+      <c r="O9" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="32">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B13" s="41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B14" s="42"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B15" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+      <c r="B16" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="41"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
+      <c r="B19" s="42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="42"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
+      <c r="B22" s="42" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -4782,41 +4937,221 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="32"/>
+    <col min="14" max="14" width="9.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="21.33203125" style="32"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="34" t="s">
         <v>17</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="32">
+        <v>35</v>
+      </c>
+      <c r="F2" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="32">
+        <v>35</v>
+      </c>
+      <c r="F3" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="32">
+        <v>25</v>
+      </c>
+      <c r="F5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="32">
+        <v>35</v>
+      </c>
+      <c r="F6" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="32">
+        <v>50</v>
+      </c>
+      <c r="F7" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="32">
+        <v>45</v>
+      </c>
+      <c r="F9" s="32">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4857,7 +5192,7 @@
       <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4868,7 +5203,7 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4879,7 +5214,7 @@
       <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4890,7 +5225,7 @@
       <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4901,7 +5236,7 @@
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4912,7 +5247,7 @@
       <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4923,7 +5258,7 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4934,7 +5269,7 @@
       <c r="B9" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4945,7 +5280,7 @@
       <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4956,7 +5291,7 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4967,7 +5302,7 @@
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4978,7 +5313,7 @@
       <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4989,7 +5324,7 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5000,7 +5335,7 @@
       <c r="B15" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5011,7 +5346,7 @@
       <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5022,7 +5357,7 @@
       <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5033,7 +5368,7 @@
       <c r="B18" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5044,7 +5379,7 @@
       <c r="B19" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5055,7 +5390,7 @@
       <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5066,7 +5401,7 @@
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5077,7 +5412,7 @@
       <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -5088,7 +5423,7 @@
       <c r="B23" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5099,7 +5434,7 @@
       <c r="B24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5110,7 +5445,7 @@
       <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5121,7 +5456,7 @@
       <c r="B26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5132,7 +5467,7 @@
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5143,7 +5478,7 @@
       <c r="B28" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5154,7 +5489,7 @@
       <c r="B29" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5165,7 +5500,7 @@
       <c r="B30" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5176,7 +5511,7 @@
       <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5187,7 +5522,7 @@
       <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5198,7 +5533,7 @@
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5209,7 +5544,7 @@
       <c r="B34" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5220,7 +5555,7 @@
       <c r="B35" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5231,7 +5566,7 @@
       <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5242,7 +5577,7 @@
       <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5253,7 +5588,7 @@
       <c r="B38" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5264,7 +5599,7 @@
       <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5275,7 +5610,7 @@
       <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5286,7 +5621,7 @@
       <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5297,7 +5632,7 @@
       <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5308,7 +5643,7 @@
       <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>61</v>
       </c>
     </row>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC56346-0AAE-2146-8F33-AE60F349788C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F12634-1F64-CA4B-AC4B-9978A0EEF9AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="13940" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="300">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -956,6 +956,27 @@
   </si>
   <si>
     <t>Stories that look simple to implement are actually turning out to be complex</t>
+  </si>
+  <si>
+    <t>DeseasedIndividuals.py</t>
+  </si>
+  <si>
+    <t>list_deseased_individuals</t>
+  </si>
+  <si>
+    <t>test_list_deseased</t>
+  </si>
+  <si>
+    <t>TestDeseasedIndividauls,py</t>
+  </si>
+  <si>
+    <t>FamilyValidation.oy</t>
+  </si>
+  <si>
+    <t>check_same_name</t>
+  </si>
+  <si>
+    <t>test_same_name_XXX</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2577,7 +2598,7 @@
         <v>195</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2594,7 +2615,7 @@
         <v>195</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2611,7 +2632,7 @@
         <v>183</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -2628,7 +2649,7 @@
         <v>183</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2645,7 +2666,7 @@
         <v>187</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2662,7 +2683,7 @@
         <v>187</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
@@ -2679,7 +2700,7 @@
         <v>183</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -2696,7 +2717,7 @@
         <v>183</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -2713,7 +2734,7 @@
         <v>187</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -2730,7 +2751,7 @@
         <v>182</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2747,7 +2768,7 @@
         <v>182</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
@@ -2764,7 +2785,7 @@
         <v>187</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
@@ -2781,7 +2802,7 @@
         <v>182</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2798,7 +2819,7 @@
         <v>195</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2815,7 +2836,7 @@
         <v>183</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2832,7 +2853,7 @@
         <v>187</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2849,10 +2870,10 @@
         <v>187</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>183</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -2968,7 +2989,7 @@
         <v>195</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -3002,7 +3023,7 @@
         <v>195</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -3019,7 +3040,7 @@
         <v>195</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -3036,7 +3057,7 @@
         <v>182</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -3053,7 +3074,7 @@
         <v>182</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -3070,7 +3091,7 @@
         <v>195</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
@@ -3087,7 +3108,7 @@
         <v>182</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
@@ -3104,7 +3125,7 @@
         <v>195</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4447,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -4939,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4958,7 +4979,7 @@
     <col min="11" max="11" width="16.5" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" style="32"/>
-    <col min="14" max="14" width="9.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" style="32" customWidth="1"/>
     <col min="15" max="15" width="14" style="32" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" style="32" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="21.33203125" style="32"/>
@@ -5110,11 +5131,41 @@
       <c r="C7" s="32" t="s">
         <v>195</v>
       </c>
+      <c r="D7" s="32" t="s">
+        <v>228</v>
+      </c>
       <c r="E7" s="32">
         <v>50</v>
       </c>
       <c r="F7" s="32">
         <v>2</v>
+      </c>
+      <c r="G7" s="32">
+        <v>45</v>
+      </c>
+      <c r="H7" s="32">
+        <v>1</v>
+      </c>
+      <c r="I7" s="39">
+        <v>42094</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" s="32">
+        <v>37</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="P7" s="32">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
@@ -5137,7 +5188,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5147,11 +5198,41 @@
       <c r="C9" s="32" t="s">
         <v>195</v>
       </c>
+      <c r="D9" s="32" t="s">
+        <v>228</v>
+      </c>
       <c r="E9" s="32">
         <v>45</v>
       </c>
       <c r="F9" s="32">
         <v>2</v>
+      </c>
+      <c r="G9" s="32">
+        <v>28</v>
+      </c>
+      <c r="H9" s="32">
+        <v>1</v>
+      </c>
+      <c r="I9" s="39">
+        <v>42094</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="L9" s="32">
+        <v>20</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="P9" s="32">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F12634-1F64-CA4B-AC4B-9978A0EEF9AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A2F1E4-39D7-4456-BEE1-BCBDF390EEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="304">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -977,6 +976,18 @@
   </si>
   <si>
     <t>test_same_name_XXX</t>
+  </si>
+  <si>
+    <t>CousinsMarriageValidation.py</t>
+  </si>
+  <si>
+    <t>check_whether_first_cousins_married</t>
+  </si>
+  <si>
+    <t>TestCousinsMarriageValidation.py</t>
+  </si>
+  <si>
+    <t>TestCousinMarrages</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1375,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1435,7 +1446,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2431,15 +2442,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2456,7 +2467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>183</v>
       </c>
@@ -2473,7 +2484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2490,7 +2501,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>187</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>195</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2533,7 +2544,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2557,17 +2568,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="15" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="15"/>
+    <col min="4" max="4" width="6.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2584,7 +2595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -2618,7 +2629,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -2635,7 +2646,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -2669,7 +2680,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
@@ -2720,7 +2731,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
@@ -2737,7 +2748,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -2805,7 +2816,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
@@ -2856,7 +2867,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
@@ -2873,7 +2884,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2890,7 +2901,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
@@ -2907,7 +2918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
@@ -2924,7 +2935,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
@@ -2941,7 +2952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
@@ -2992,7 +3003,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
@@ -3009,7 +3020,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
@@ -3026,7 +3037,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
@@ -3043,7 +3054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
@@ -3060,7 +3071,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
@@ -3094,7 +3105,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
@@ -3143,47 +3154,47 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3206,7 +3217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3222,7 +3233,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3272,7 +3283,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3297,7 +3308,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3337,17 +3348,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3378,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3421,7 +3432,7 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
@@ -3442,7 +3453,7 @@
         <v>18.176470588235293</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3463,28 +3474,28 @@
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="28" customWidth="1"/>
     <col min="12" max="12" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="28" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="15"/>
+    <col min="13" max="13" width="1.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3531,7 +3542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -3625,7 +3636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3672,7 +3683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -3719,7 +3730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -3766,7 +3777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -3813,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
@@ -3860,7 +3871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
@@ -3907,7 +3918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="26"/>
@@ -3915,43 +3926,43 @@
       <c r="O10" s="27"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>231</v>
       </c>
@@ -3967,25 +3978,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="10.875" style="32"/>
     <col min="2" max="2" width="22" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="32"/>
-    <col min="10" max="10" width="13.83203125" style="32" customWidth="1"/>
+    <col min="3" max="9" width="10.875" style="32"/>
+    <col min="10" max="10" width="13.875" style="32" customWidth="1"/>
     <col min="11" max="11" width="16" style="32" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="32"/>
+    <col min="12" max="12" width="15.875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="32" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
@@ -4033,7 +4044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
@@ -4080,7 +4091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
@@ -4174,7 +4185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
@@ -4221,7 +4232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
@@ -4315,7 +4326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -4362,7 +4373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -4409,50 +4420,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
@@ -4468,21 +4479,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="10.875" style="32"/>
     <col min="2" max="2" width="23" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="32"/>
-    <col min="11" max="11" width="14.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="32"/>
+    <col min="3" max="10" width="10.875" style="32"/>
+    <col min="11" max="11" width="14.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -4530,7 +4541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
@@ -4624,7 +4635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
@@ -4718,7 +4729,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -4765,7 +4776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
@@ -4812,7 +4823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
@@ -4859,7 +4870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
@@ -4906,46 +4917,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="43" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B22" s="42" t="s">
         <v>292</v>
       </c>
@@ -4960,32 +4971,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" style="32"/>
-    <col min="14" max="14" width="18.1640625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="32"/>
+    <col min="14" max="14" width="18.125" style="32" customWidth="1"/>
     <col min="15" max="15" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="21.33203125" style="32"/>
+    <col min="16" max="16" width="10.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="21.375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -5033,7 +5044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
@@ -5043,14 +5054,44 @@
       <c r="C2" s="32" t="s">
         <v>187</v>
       </c>
+      <c r="D2" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="E2" s="32">
         <v>35</v>
       </c>
       <c r="F2" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="G2" s="32">
+        <v>30</v>
+      </c>
+      <c r="H2" s="32">
+        <v>2</v>
+      </c>
+      <c r="I2" s="39">
+        <v>42104</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" s="32">
+        <v>60</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>128</v>
       </c>
@@ -5060,14 +5101,44 @@
       <c r="C3" s="32" t="s">
         <v>187</v>
       </c>
+      <c r="D3" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="E3" s="32">
         <v>35</v>
       </c>
       <c r="F3" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+      <c r="G3" s="32">
+        <v>30</v>
+      </c>
+      <c r="H3" s="32">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39">
+        <v>42104</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L3" s="32">
+        <v>60</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="P3" s="32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
@@ -5087,7 +5158,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
@@ -5104,7 +5175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>132</v>
       </c>
@@ -5121,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>133</v>
       </c>
@@ -5168,7 +5239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>135</v>
       </c>
@@ -5188,7 +5259,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5238,6 +5309,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5249,13 +5321,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5266,7 +5338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5277,7 +5349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5288,7 +5360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5299,7 +5371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5310,7 +5382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5321,7 +5393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5332,7 +5404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5343,7 +5415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5354,7 +5426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5365,7 +5437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5376,7 +5448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5387,7 +5459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5398,7 +5470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -5409,7 +5481,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -5420,7 +5492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5431,7 +5503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5442,7 +5514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5453,7 +5525,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5464,7 +5536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5475,7 +5547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5486,7 +5558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5497,7 +5569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5508,7 +5580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5519,7 +5591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5530,7 +5602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5541,7 +5613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5552,7 +5624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5563,7 +5635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5574,7 +5646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5585,7 +5657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5596,7 +5668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5607,7 +5679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5618,7 +5690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5629,7 +5701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5640,7 +5712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5651,7 +5723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5662,7 +5734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5673,7 +5745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5684,7 +5756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5695,7 +5767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5706,7 +5778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5717,7 +5789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JP/OneDrive/Jonathan's Folder!/Stevens/CS_555_Agile_Methods_for_SW_Development/Project_Documents/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F12634-1F64-CA4B-AC4B-9978A0EEF9AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A47C3-17CF-804B-B46C-4838EEC70915}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2533,7 +2527,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2584,7 +2578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -2601,7 +2595,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -2618,7 +2612,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -2635,7 +2629,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -2652,7 +2646,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -2669,7 +2663,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2686,7 +2680,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -2703,7 +2697,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
@@ -2720,7 +2714,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
@@ -2737,7 +2731,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -2771,7 +2765,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -2805,7 +2799,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
@@ -2822,7 +2816,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
@@ -2839,7 +2833,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
@@ -2873,7 +2867,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2890,7 +2884,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
@@ -2907,7 +2901,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
@@ -2924,7 +2918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
@@ -2958,7 +2952,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
@@ -2975,7 +2969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
@@ -2992,7 +2986,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
@@ -3009,7 +3003,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
@@ -3026,7 +3020,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
@@ -3043,7 +3037,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
@@ -3060,7 +3054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3077,7 +3071,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
@@ -3094,7 +3088,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
@@ -3111,7 +3105,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
@@ -3484,7 +3478,7 @@
     <col min="17" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3531,7 +3525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -3578,7 +3572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -3625,7 +3619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -3719,7 +3713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -3766,7 +3760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -3813,7 +3807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
@@ -3860,7 +3854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
@@ -3915,7 +3909,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
@@ -3923,12 +3917,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
@@ -3936,17 +3930,17 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
@@ -4033,7 +4027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
@@ -4080,7 +4074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
@@ -4127,7 +4121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
@@ -4174,7 +4168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
@@ -4221,7 +4215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
@@ -4315,7 +4309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -4362,7 +4356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -4413,7 +4407,7 @@
     <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
@@ -4421,12 +4415,12 @@
     <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
@@ -4434,12 +4428,12 @@
     <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
@@ -4447,12 +4441,12 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.15">
       <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
@@ -4530,7 +4524,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
@@ -4577,7 +4571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
@@ -4624,7 +4618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
@@ -4671,7 +4665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
@@ -4718,7 +4712,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -4765,7 +4759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="208" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
@@ -4812,7 +4806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="208" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
@@ -4859,7 +4853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
@@ -4919,7 +4913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="42" t="s">
         <v>290</v>
       </c>
@@ -4932,7 +4926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.15">
       <c r="B19" s="42" t="s">
         <v>291</v>
       </c>
@@ -4945,7 +4939,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="36" x14ac:dyDescent="0.15">
       <c r="B22" s="42" t="s">
         <v>292</v>
       </c>
@@ -4960,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5033,7 +5027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
@@ -5050,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>128</v>
       </c>
@@ -5067,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
@@ -5086,8 +5080,9 @@
       <c r="F4" s="40" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
@@ -5104,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>132</v>
       </c>
@@ -5121,7 +5116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>133</v>
       </c>
@@ -5168,7 +5163,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>135</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5255,7 +5250,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5266,7 +5261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5277,7 +5272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5288,7 +5283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5299,7 +5294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5310,7 +5305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5332,7 +5327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5343,7 +5338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5365,7 +5360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5376,7 +5371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5387,7 +5382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5398,7 +5393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -5420,7 +5415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5431,7 +5426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5442,7 +5437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5453,7 +5448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5464,7 +5459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5475,7 +5470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5497,7 +5492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5508,7 +5503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5519,7 +5514,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5541,7 +5536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5552,7 +5547,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5563,7 +5558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5574,7 +5569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5596,7 +5591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5607,7 +5602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5629,7 +5624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5640,7 +5635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5651,7 +5646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5662,7 +5657,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5673,7 +5668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5695,7 +5690,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5717,7 +5712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A47C3-17CF-804B-B46C-4838EEC70915}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F54F46-DAFC-7E46-BB0D-7CBBE176F40E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="500" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,17 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="308">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -971,6 +978,30 @@
   </si>
   <si>
     <t>test_same_name_XXX</t>
+  </si>
+  <si>
+    <t>unique_name_birth.py</t>
+  </si>
+  <si>
+    <t>unique_name_and_birth</t>
+  </si>
+  <si>
+    <t>unique_family_spouses_marriage_date.py</t>
+  </si>
+  <si>
+    <t>unique_family_spouse_marriage_date</t>
+  </si>
+  <si>
+    <t>test_unique_name_birth.py</t>
+  </si>
+  <si>
+    <t>test_valid_unique_name_and_birth, test_unique_name_and_birth_invalid_name, test_unique_name_and_birth_invalid_birth</t>
+  </si>
+  <si>
+    <t>test_unique_family_spouses_marriage_date.py</t>
+  </si>
+  <si>
+    <t>test_valid_spouses_and_marriage_date, test_unique_family_spouses_name, test_unique_family_marriage_date</t>
   </si>
 </sst>
 </file>
@@ -2527,7 +2558,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2578,7 +2609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -2595,7 +2626,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -2612,7 +2643,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -2629,7 +2660,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -2646,7 +2677,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -2663,7 +2694,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2680,7 +2711,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -2697,7 +2728,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
@@ -2714,7 +2745,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
@@ -2731,7 +2762,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -2748,7 +2779,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -2765,7 +2796,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
@@ -2782,7 +2813,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -2799,7 +2830,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
@@ -2816,7 +2847,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
@@ -2833,7 +2864,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
@@ -2850,7 +2881,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2884,7 +2915,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
@@ -2901,7 +2932,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
@@ -2918,7 +2949,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
@@ -2935,7 +2966,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
@@ -2952,7 +2983,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
@@ -2969,7 +3000,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
@@ -2986,7 +3017,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
@@ -3003,7 +3034,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
@@ -3020,7 +3051,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
@@ -3037,7 +3068,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
@@ -3054,7 +3085,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3071,7 +3102,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
@@ -3088,7 +3119,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
@@ -3105,7 +3136,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
@@ -3478,7 +3509,7 @@
     <col min="17" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3525,7 +3556,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -3572,7 +3603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -3619,7 +3650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3666,7 +3697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -3713,7 +3744,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -3760,7 +3791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -3807,7 +3838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
@@ -3854,7 +3885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
@@ -3909,7 +3940,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
@@ -3917,12 +3948,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
@@ -3930,17 +3961,17 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
@@ -4027,7 +4058,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="78" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
@@ -4074,7 +4105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="91" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
@@ -4121,7 +4152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
@@ -4168,7 +4199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
@@ -4215,7 +4246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -4262,7 +4293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
@@ -4309,7 +4340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -4356,7 +4387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -4407,7 +4438,7 @@
     <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
@@ -4415,12 +4446,12 @@
     <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="36" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
@@ -4428,12 +4459,12 @@
     <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="36" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
@@ -4441,12 +4472,12 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
       <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
@@ -4524,7 +4555,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="78" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
@@ -4571,7 +4602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
@@ -4618,7 +4649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
@@ -4665,7 +4696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
@@ -4712,7 +4743,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -4759,7 +4790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="208" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
@@ -4806,7 +4837,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="208" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
@@ -4853,7 +4884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
@@ -4913,7 +4944,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
       <c r="B16" s="42" t="s">
         <v>290</v>
       </c>
@@ -4926,7 +4957,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
       <c r="B19" s="42" t="s">
         <v>291</v>
       </c>
@@ -4939,7 +4970,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
       <c r="B22" s="42" t="s">
         <v>292</v>
       </c>
@@ -4954,8 +4985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5027,7 +5058,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
@@ -5044,7 +5075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>128</v>
       </c>
@@ -5061,7 +5092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
@@ -5082,7 +5113,7 @@
       </c>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="126" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
@@ -5098,8 +5129,35 @@
       <c r="F5" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="G5" s="32">
+        <v>22</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <v>42096</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L5" s="32">
+        <v>20</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="P5" s="32">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="126" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>132</v>
       </c>
@@ -5115,8 +5173,35 @@
       <c r="F6" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="G6" s="32">
+        <v>32</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="39">
+        <v>42096</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="32">
+        <v>29</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="P6" s="32">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>133</v>
       </c>
@@ -5163,7 +5248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>135</v>
       </c>
@@ -5183,7 +5268,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5250,7 +5335,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5261,7 +5346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5272,7 +5357,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5283,7 +5368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5294,7 +5379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5305,7 +5390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5316,7 +5401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5327,7 +5412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5338,7 +5423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5349,7 +5434,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5360,7 +5445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5371,7 +5456,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5382,7 +5467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5393,7 +5478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -5404,7 +5489,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -5415,7 +5500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5426,7 +5511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5437,7 +5522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5448,7 +5533,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5459,7 +5544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5470,7 +5555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5481,7 +5566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5492,7 +5577,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5503,7 +5588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5514,7 +5599,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5525,7 +5610,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5536,7 +5621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5547,7 +5632,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5558,7 +5643,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5569,7 +5654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5580,7 +5665,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5591,7 +5676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5602,7 +5687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5613,7 +5698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5624,7 +5709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5635,7 +5720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5646,7 +5731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5657,7 +5742,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5668,7 +5753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5679,7 +5764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5690,7 +5775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5701,7 +5786,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5712,7 +5797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelramos/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F54F46-DAFC-7E46-BB0D-7CBBE176F40E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B694843-0497-B74D-BE0D-5E88F2936897}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="500" windowWidth="23040" windowHeight="14400" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -43,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="313">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1002,6 +995,25 @@
   </si>
   <si>
     <t>test_valid_spouses_and_marriage_date, test_unique_family_spouses_name, test_unique_family_marriage_date</t>
+  </si>
+  <si>
+    <t>UniqueIds.py</t>
+  </si>
+  <si>
+    <t>UniqueFamilyIds
+UniqueIndividualIds</t>
+  </si>
+  <si>
+    <t>TestUniqueIds.py</t>
+  </si>
+  <si>
+    <t>test_no_duplicate_family_ids,
+test_no_duplicate_individual_ids,
+test_duplicate_individual_ids,
+test_duplicate_family_ids</t>
+  </si>
+  <si>
+    <t>Refactored for Testability</t>
   </si>
 </sst>
 </file>
@@ -2558,7 +2570,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2609,7 +2621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -2643,7 +2655,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -2660,7 +2672,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2711,7 +2723,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
@@ -2762,7 +2774,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -2779,7 +2791,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="80" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -2830,7 +2842,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
@@ -2847,7 +2859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
@@ -2898,7 +2910,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2915,7 +2927,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
@@ -2949,7 +2961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
@@ -2983,7 +2995,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
@@ -3034,7 +3046,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
@@ -3068,7 +3080,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
@@ -3085,7 +3097,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
@@ -3119,7 +3131,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
@@ -3136,7 +3148,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
@@ -3509,7 +3521,7 @@
     <col min="17" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -3650,7 +3662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3697,7 +3709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -3744,7 +3756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -3838,7 +3850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
@@ -3885,7 +3897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
@@ -3940,7 +3952,7 @@
       <c r="O10" s="27"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
@@ -3948,12 +3960,12 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="22" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
@@ -3961,17 +3973,17 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="66" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
@@ -4058,7 +4070,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
@@ -4105,7 +4117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="91" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
@@ -4246,7 +4258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -4387,7 +4399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -4438,7 +4450,7 @@
     <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
@@ -4446,12 +4458,12 @@
     <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="22" x14ac:dyDescent="0.15">
       <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
@@ -4459,12 +4471,12 @@
     <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="36" customFormat="1" ht="26" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
@@ -4472,12 +4484,12 @@
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.15">
       <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
@@ -4555,7 +4567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="78" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
@@ -4602,7 +4614,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="208" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="208" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
@@ -4884,7 +4896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="39" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
@@ -4944,7 +4956,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="48" x14ac:dyDescent="0.15">
       <c r="B16" s="42" t="s">
         <v>290</v>
       </c>
@@ -4957,7 +4969,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.15">
       <c r="B19" s="42" t="s">
         <v>291</v>
       </c>
@@ -4970,7 +4982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="36" x14ac:dyDescent="0.15">
       <c r="B22" s="42" t="s">
         <v>292</v>
       </c>
@@ -4985,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5002,7 +5014,7 @@
     <col min="9" max="9" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="32" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" style="32"/>
     <col min="14" max="14" width="18.1640625" style="32" customWidth="1"/>
     <col min="15" max="15" width="14" style="32" bestFit="1" customWidth="1"/>
@@ -5058,7 +5070,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
@@ -5075,7 +5087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>128</v>
       </c>
@@ -5092,7 +5104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="130" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
@@ -5102,8 +5114,8 @@
       <c r="C4" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>288</v>
+      <c r="D4" s="36" t="s">
+        <v>312</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>289</v>
@@ -5111,9 +5123,35 @@
       <c r="F4" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="I4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" ht="126" x14ac:dyDescent="0.15">
+      <c r="G4" s="32">
+        <v>12</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <v>42106</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L4" s="32">
+        <v>10</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="P4" s="32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="117" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
@@ -5157,7 +5195,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="126" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="117" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>132</v>
       </c>
@@ -5201,7 +5239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>133</v>
       </c>
@@ -5248,7 +5286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>135</v>
       </c>
@@ -5268,7 +5306,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5318,6 +5356,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5335,7 +5374,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5346,7 +5385,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5357,7 +5396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5368,7 +5407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5379,7 +5418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5390,7 +5429,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5401,7 +5440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5412,7 +5451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5423,7 +5462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5434,7 +5473,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5445,7 +5484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5456,7 +5495,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5467,7 +5506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5478,7 +5517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -5489,7 +5528,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -5500,7 +5539,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5511,7 +5550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5522,7 +5561,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5533,7 +5572,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5544,7 +5583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5555,7 +5594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5566,7 +5605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5577,7 +5616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5588,7 +5627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5599,7 +5638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5610,7 +5649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5621,7 +5660,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5632,7 +5671,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5643,7 +5682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5654,7 +5693,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5665,7 +5704,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5676,7 +5715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5687,7 +5726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5698,7 +5737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5709,7 +5748,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5720,7 +5759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5731,7 +5770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5742,7 +5781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5753,7 +5792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5764,7 +5803,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5775,7 +5814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5786,7 +5825,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5797,7 +5836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A2F1E4-39D7-4456-BEE1-BCBDF390EEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EACD8-0D17-A34E-BA9E-F0E0BE48DAF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="312">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -988,6 +989,30 @@
   </si>
   <si>
     <t>TestCousinMarrages</t>
+  </si>
+  <si>
+    <t>unique_name_birth.py</t>
+  </si>
+  <si>
+    <t>unique_name_and_birth</t>
+  </si>
+  <si>
+    <t>test_unique_name_birth.py</t>
+  </si>
+  <si>
+    <t>test_valid_unique_name_and_birth, test_unique_name_and_birth_invalid_name, test_unique_name_and_birth_invalid_birth</t>
+  </si>
+  <si>
+    <t>unique_family_spouses_marriage_date.py</t>
+  </si>
+  <si>
+    <t>unique_family_spouse_marriage_date</t>
+  </si>
+  <si>
+    <t>test_unique_family_spouses_marriage_date.py</t>
+  </si>
+  <si>
+    <t>test_valid_spouses_and_marriage_date, test_unique_family_spouses_name, test_unique_family_marriage_date</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1400,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1446,7 +1471,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2442,15 +2467,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2467,7 +2492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>183</v>
       </c>
@@ -2484,7 +2509,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2501,7 +2526,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>187</v>
       </c>
@@ -2518,7 +2543,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>195</v>
       </c>
@@ -2535,7 +2560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2544,7 +2569,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2564,21 +2589,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" style="15" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="15"/>
+    <col min="4" max="4" width="6.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2595,7 +2620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -2612,7 +2637,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -2629,7 +2654,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -2646,7 +2671,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -2663,7 +2688,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -2680,7 +2705,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2697,7 +2722,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -2714,7 +2739,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
@@ -2731,7 +2756,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
@@ -2748,7 +2773,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -2765,7 +2790,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
@@ -2799,7 +2824,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -2816,7 +2841,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
@@ -2833,7 +2858,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
@@ -2850,7 +2875,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
@@ -2867,7 +2892,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
@@ -2884,7 +2909,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2901,7 +2926,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
@@ -2918,7 +2943,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
@@ -2935,7 +2960,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
@@ -2952,7 +2977,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
@@ -2969,7 +2994,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
@@ -2986,7 +3011,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
@@ -3003,7 +3028,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
@@ -3020,7 +3045,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
@@ -3037,7 +3062,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
@@ -3054,7 +3079,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
@@ -3071,7 +3096,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3088,7 +3113,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
@@ -3105,7 +3130,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
@@ -3122,7 +3147,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
@@ -3154,47 +3179,47 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3217,7 +3242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3233,7 +3258,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3258,7 +3283,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3283,7 +3308,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3308,7 +3333,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3348,17 +3373,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3389,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3411,7 +3436,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3432,7 +3457,7 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
@@ -3453,7 +3478,7 @@
         <v>18.176470588235293</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3474,28 +3499,28 @@
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="20.83203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" style="28" customWidth="1"/>
     <col min="12" max="12" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="16.875" style="28" customWidth="1"/>
-    <col min="15" max="15" width="22.875" style="28" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.875" style="15"/>
+    <col min="13" max="13" width="1.83203125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="28" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3542,7 +3567,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -3589,7 +3614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -3636,7 +3661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3683,7 +3708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -3730,7 +3755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -3777,7 +3802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -3824,7 +3849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
@@ -3871,7 +3896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
@@ -3918,7 +3943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="26"/>
@@ -3926,43 +3951,43 @@
       <c r="O10" s="27"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
       <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="31" t="s">
         <v>231</v>
       </c>
@@ -3982,21 +4007,21 @@
       <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="32"/>
+    <col min="1" max="1" width="10.83203125" style="32"/>
     <col min="2" max="2" width="22" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="32"/>
-    <col min="10" max="10" width="13.875" style="32" customWidth="1"/>
+    <col min="3" max="9" width="10.83203125" style="32"/>
+    <col min="10" max="10" width="13.83203125" style="32" customWidth="1"/>
     <col min="11" max="11" width="16" style="32" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="4.125" style="32" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="32" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="32"/>
+    <col min="12" max="12" width="15.83203125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="32" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
@@ -4044,7 +4069,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
@@ -4091,7 +4116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
       <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
@@ -4138,7 +4163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
@@ -4185,7 +4210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
@@ -4232,7 +4257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -4279,7 +4304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
@@ -4326,7 +4351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -4373,7 +4398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -4420,50 +4445,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="36" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
       <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
@@ -4483,17 +4508,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="32"/>
+    <col min="1" max="1" width="10.83203125" style="32"/>
     <col min="2" max="2" width="23" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.875" style="32"/>
-    <col min="11" max="11" width="14.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="32"/>
+    <col min="3" max="10" width="10.83203125" style="32"/>
+    <col min="11" max="11" width="14.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -4541,7 +4566,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
@@ -4588,7 +4613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
@@ -4635,7 +4660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
@@ -4682,7 +4707,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
@@ -4729,7 +4754,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -4776,7 +4801,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
@@ -4823,7 +4848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
@@ -4870,7 +4895,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
@@ -4917,46 +4942,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" s="41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" s="43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
       <c r="B16" s="42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="41"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
       <c r="B19" s="42" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="43" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
       <c r="B22" s="42" t="s">
         <v>292</v>
       </c>
@@ -4972,31 +4997,31 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" style="32"/>
-    <col min="14" max="14" width="18.125" style="32" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" style="32"/>
+    <col min="14" max="14" width="18.1640625" style="32" customWidth="1"/>
     <col min="15" max="15" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="21.375" style="32"/>
+    <col min="16" max="16" width="10.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="21.33203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -5044,7 +5069,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
@@ -5091,7 +5116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>128</v>
       </c>
@@ -5138,7 +5163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
@@ -5158,7 +5183,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="126" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
@@ -5168,14 +5193,44 @@
       <c r="C5" s="32" t="s">
         <v>183</v>
       </c>
+      <c r="D5" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="E5" s="32">
         <v>25</v>
       </c>
       <c r="F5" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G5" s="32">
+        <v>22</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1</v>
+      </c>
+      <c r="I5" s="39">
+        <v>42096</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" s="32">
+        <v>18</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="P5" s="32">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="126" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>132</v>
       </c>
@@ -5185,14 +5240,44 @@
       <c r="C6" s="32" t="s">
         <v>183</v>
       </c>
+      <c r="D6" s="36" t="s">
+        <v>287</v>
+      </c>
       <c r="E6" s="32">
         <v>35</v>
       </c>
       <c r="F6" s="32">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="32">
+        <v>32</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="39">
+        <v>42096</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" s="32">
+        <v>29</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="P6" s="32">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>133</v>
       </c>
@@ -5239,7 +5324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>135</v>
       </c>
@@ -5259,7 +5344,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5321,13 +5406,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5338,7 +5423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5349,7 +5434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5360,7 +5445,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5371,7 +5456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5382,7 +5467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5393,7 +5478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5404,7 +5489,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5415,7 +5500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5426,7 +5511,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5437,7 +5522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5448,7 +5533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5459,7 +5544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5470,7 +5555,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -5481,7 +5566,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -5492,7 +5577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5503,7 +5588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5514,7 +5599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5525,7 +5610,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5536,7 +5621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5547,7 +5632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5558,7 +5643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5569,7 +5654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5580,7 +5665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5591,7 +5676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5602,7 +5687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5613,7 +5698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5624,7 +5709,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5635,7 +5720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5646,7 +5731,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5657,7 +5742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5668,7 +5753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5679,7 +5764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5690,7 +5775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5701,7 +5786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5712,7 +5797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5723,7 +5808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5734,7 +5819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5745,7 +5830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5756,7 +5841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5767,7 +5852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5778,7 +5863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5789,7 +5874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>150</v>
       </c>

--- a/TeamDReport copy.xlsx
+++ b/TeamDReport copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklin/SSW555/SSW555-DriverlessCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Funbucket24\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EACD8-0D17-A34E-BA9E-F0E0BE48DAF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A2F1E4-39D7-4456-BEE1-BCBDF390EEC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="304">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -989,30 +988,6 @@
   </si>
   <si>
     <t>TestCousinMarrages</t>
-  </si>
-  <si>
-    <t>unique_name_birth.py</t>
-  </si>
-  <si>
-    <t>unique_name_and_birth</t>
-  </si>
-  <si>
-    <t>test_unique_name_birth.py</t>
-  </si>
-  <si>
-    <t>test_valid_unique_name_and_birth, test_unique_name_and_birth_invalid_name, test_unique_name_and_birth_invalid_birth</t>
-  </si>
-  <si>
-    <t>unique_family_spouses_marriage_date.py</t>
-  </si>
-  <si>
-    <t>unique_family_spouse_marriage_date</t>
-  </si>
-  <si>
-    <t>test_unique_family_spouses_marriage_date.py</t>
-  </si>
-  <si>
-    <t>test_valid_spouses_and_marriage_date, test_unique_family_spouses_name, test_unique_family_marriage_date</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1375,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1471,7 +1446,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2467,15 +2442,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2492,7 +2467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>183</v>
       </c>
@@ -2509,7 +2484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -2526,7 +2501,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>187</v>
       </c>
@@ -2543,7 +2518,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>195</v>
       </c>
@@ -2560,7 +2535,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2569,7 +2544,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D6">
+  <sortState ref="A4:D6">
     <sortCondition ref="C4:C6"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2589,21 +2564,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="15" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="15"/>
+    <col min="4" max="4" width="6.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>29</v>
       </c>
@@ -2620,7 +2595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -2637,7 +2612,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -2654,7 +2629,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -2671,7 +2646,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -2688,7 +2663,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -2705,7 +2680,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -2722,7 +2697,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>115</v>
       </c>
@@ -2739,7 +2714,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>116</v>
       </c>
@@ -2756,7 +2731,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>117</v>
       </c>
@@ -2773,7 +2748,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>118</v>
       </c>
@@ -2790,7 +2765,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -2807,7 +2782,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>120</v>
       </c>
@@ -2824,7 +2799,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -2841,7 +2816,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>122</v>
       </c>
@@ -2858,7 +2833,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>123</v>
       </c>
@@ -2875,7 +2850,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>124</v>
       </c>
@@ -2892,7 +2867,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>125</v>
       </c>
@@ -2909,7 +2884,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>126</v>
       </c>
@@ -2926,7 +2901,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>127</v>
       </c>
@@ -2943,7 +2918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>128</v>
       </c>
@@ -2960,7 +2935,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>130</v>
       </c>
@@ -2977,7 +2952,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>131</v>
       </c>
@@ -2994,7 +2969,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="63" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>132</v>
       </c>
@@ -3011,7 +2986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>133</v>
       </c>
@@ -3028,7 +3003,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>135</v>
       </c>
@@ -3045,7 +3020,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>136</v>
       </c>
@@ -3062,7 +3037,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>137</v>
       </c>
@@ -3079,7 +3054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>138</v>
       </c>
@@ -3096,7 +3071,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>139</v>
       </c>
@@ -3113,7 +3088,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>140</v>
       </c>
@@ -3130,7 +3105,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>149</v>
       </c>
@@ -3147,7 +3122,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="51" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>150</v>
       </c>
@@ -3179,47 +3154,47 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>156</v>
       </c>
@@ -3242,7 +3217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3258,7 +3233,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3283,7 +3258,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
@@ -3308,7 +3283,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>160</v>
       </c>
@@ -3333,7 +3308,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>161</v>
       </c>
@@ -3373,17 +3348,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42044</v>
       </c>
@@ -3414,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42058</v>
       </c>
@@ -3436,7 +3411,7 @@
         <v>44.186046511627907</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42079</v>
       </c>
@@ -3457,7 +3432,7 @@
         <v>11.733333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42093</v>
       </c>
@@ -3478,7 +3453,7 @@
         <v>18.176470588235293</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42107</v>
       </c>
@@ -3499,28 +3474,28 @@
       <selection activeCell="B13" sqref="B13:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" style="28" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="20.875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="28" customWidth="1"/>
     <col min="12" max="12" width="13" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.83203125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="16.83203125" style="28" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="15"/>
+    <col min="13" max="13" width="1.875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="28" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3567,7 +3542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>109</v>
       </c>
@@ -3614,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
@@ -3661,7 +3636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>111</v>
       </c>
@@ -3708,7 +3683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>112</v>
       </c>
@@ -3755,7 +3730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>113</v>
       </c>
@@ -3802,7 +3777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>114</v>
       </c>
@@ -3849,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>118</v>
       </c>
@@ -3896,7 +3871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>119</v>
       </c>
@@ -3943,7 +3918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="26"/>
@@ -3951,43 +3926,43 @@
       <c r="O10" s="27"/>
       <c r="P10" s="26"/>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="72" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="73.5" x14ac:dyDescent="0.2">
       <c r="B19" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="31" t="s">
         <v>231</v>
       </c>
@@ -4007,21 +3982,21 @@
       <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="10.875" style="32"/>
     <col min="2" max="2" width="22" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="32"/>
-    <col min="10" max="10" width="13.83203125" style="32" customWidth="1"/>
+    <col min="3" max="9" width="10.875" style="32"/>
+    <col min="10" max="10" width="13.875" style="32" customWidth="1"/>
     <col min="11" max="11" width="16" style="32" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="32" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="32"/>
+    <col min="12" max="12" width="15.875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="4.125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="32" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="32" customWidth="1"/>
+    <col min="16" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
@@ -4069,7 +4044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="36" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="36" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
         <v>115</v>
       </c>
@@ -4116,7 +4091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="36" customFormat="1" ht="98" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" s="36" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
         <v>116</v>
       </c>
@@ -4163,7 +4138,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
         <v>117</v>
       </c>
@@ -4210,7 +4185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>120</v>
       </c>
@@ -4257,7 +4232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>121</v>
       </c>
@@ -4304,7 +4279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>122</v>
       </c>
@@ -4351,7 +4326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>149</v>
       </c>
@@ -4398,7 +4373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>150</v>
       </c>
@@ -4445,50 +4420,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:16" s="36" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="36" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="36" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B17" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
     </row>
-    <row r="19" spans="2:2" s="36" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="36" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="36" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="B20" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="17"/>
     </row>
-    <row r="22" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="36" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B23" s="31" t="s">
         <v>261</v>
       </c>
@@ -4508,17 +4483,17 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="10.875" style="32"/>
     <col min="2" max="2" width="23" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="32"/>
-    <col min="11" max="11" width="14.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="32"/>
+    <col min="3" max="10" width="10.875" style="32"/>
+    <col min="11" max="11" width="14.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -4566,7 +4541,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>123</v>
       </c>
@@ -4613,7 +4588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>124</v>
       </c>
@@ -4660,7 +4635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>125</v>
       </c>
@@ -4707,7 +4682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>126</v>
       </c>
@@ -4754,7 +4729,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>136</v>
       </c>
@@ -4801,7 +4776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>138</v>
       </c>
@@ -4848,7 +4823,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="224" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>139</v>
       </c>
@@ -4895,7 +4870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>140</v>
       </c>
@@ -4942,46 +4917,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" s="42"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" s="43" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="65" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="42"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="43" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="39" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B22" s="42" t="s">
         <v>292</v>
       </c>
@@ -4997,31 +4972,31 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="21.375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="32" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="32" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="32" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" style="32"/>
-    <col min="14" max="14" width="18.1640625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="32"/>
+    <col min="14" max="14" width="18.125" style="32" customWidth="1"/>
     <col min="15" max="15" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="21.33203125" style="32"/>
+    <col min="16" max="16" width="10.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="21.375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
@@ -5069,7 +5044,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>127</v>
       </c>
@@ -5116,7 +5091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>128</v>
       </c>
@@ -5163,7 +5138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>130</v>
       </c>
@@ -5183,7 +5158,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="126" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>131</v>
       </c>
@@ -5193,44 +5168,14 @@
       <c r="C5" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>287</v>
-      </c>
       <c r="E5" s="32">
         <v>25</v>
       </c>
       <c r="F5" s="32">
         <v>1</v>
       </c>
-      <c r="G5" s="32">
-        <v>22</v>
-      </c>
-      <c r="H5" s="32">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>42096</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="L5" s="32">
-        <v>18</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="O5" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="P5" s="32">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="126" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>132</v>
       </c>
@@ -5240,44 +5185,14 @@
       <c r="C6" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>287</v>
-      </c>
       <c r="E6" s="32">
         <v>35</v>
       </c>
       <c r="F6" s="32">
         <v>2</v>
       </c>
-      <c r="G6" s="32">
-        <v>32</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1</v>
-      </c>
-      <c r="I6" s="39">
-        <v>42096</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="L6" s="32">
-        <v>29</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="P6" s="32">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>133</v>
       </c>
@@ -5324,7 +5239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>135</v>
       </c>
@@ -5344,7 +5259,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>137</v>
       </c>
@@ -5406,13 +5321,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -5423,7 +5338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5434,7 +5349,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5445,7 +5360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5456,7 +5371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5467,7 +5382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5478,7 +5393,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5489,7 +5404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5500,7 +5415,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5511,7 +5426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5522,7 +5437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5533,7 +5448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5544,7 +5459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5555,7 +5470,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -5566,7 +5481,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -5577,7 +5492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -5588,7 +5503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -5599,7 +5514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -5610,7 +5525,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5621,7 +5536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -5632,7 +5547,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -5643,7 +5558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -5654,7 +5569,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5665,7 +5580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -5676,7 +5591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>132</v>
       </c>
@@ -5687,7 +5602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5698,7 +5613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -5709,7 +5624,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -5720,7 +5635,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>136</v>
       </c>
@@ -5731,7 +5646,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5742,7 +5657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -5753,7 +5668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -5764,7 +5679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5775,7 +5690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -5786,7 +5701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -5797,7 +5712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5808,7 +5723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>144</v>
       </c>
@@ -5819,7 +5734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -5830,7 +5745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -5841,7 +5756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5852,7 +5767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>148</v>
       </c>
@@ -5863,7 +5778,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>149</v>
       </c>
@@ -5874,7 +5789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>
